--- a/MakeAGame/LubanTool/GameConfig/Datas/Relic.xlsx
+++ b/MakeAGame/LubanTool/GameConfig/Datas/Relic.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>##var</t>
   </si>
@@ -40,6 +40,12 @@
     <t>effectPriority</t>
   </si>
   <si>
+    <t>Params</t>
+  </si>
+  <si>
+    <t>ParamsDesc</t>
+  </si>
+  <si>
     <t>##type</t>
   </si>
   <si>
@@ -55,6 +61,9 @@
     <t>(list#sep=,),int#ref=GameData.TbRelic</t>
   </si>
   <si>
+    <t>(list#sep=,),float</t>
+  </si>
+  <si>
     <t>##</t>
   </si>
   <si>
@@ -82,6 +91,12 @@
     <t>与其他遗物同时作用于同一数值时，两者的先后顺序</t>
   </si>
   <si>
+    <t>参数</t>
+  </si>
+  <si>
+    <t>参数说明</t>
+  </si>
+  <si>
     <t>蛊器</t>
   </si>
   <si>
@@ -92,6 +107,12 @@
   </si>
   <si>
     <t>White</t>
+  </si>
+  <si>
+    <t>3</t>
+  </si>
+  <si>
+    <t>增加最大混沌值</t>
   </si>
 </sst>
 </file>
@@ -101,7 +122,7 @@
   <numFmts count="1">
     <numFmt numFmtId="0" formatCode="General"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color indexed="8"/>
@@ -125,11 +146,6 @@
     <font>
       <sz val="11"/>
       <color indexed="13"/>
-      <name val="等线"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color indexed="14"/>
       <name val="等线"/>
     </font>
   </fonts>
@@ -236,7 +252,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -267,16 +283,13 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="5" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="4" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -327,7 +340,6 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ffaaaaaa"/>
       <rgbColor rgb="ffbd6427"/>
-      <rgbColor rgb="ff9c0006"/>
       <rgbColor rgb="ff006100"/>
     </indexedColors>
   </colors>
@@ -1405,8 +1417,8 @@
     <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.3516" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.3516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="17.8516" style="1" customWidth="1"/>
-    <col min="11" max="11" width="6.5" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.8281" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.7734" style="1" customWidth="1"/>
     <col min="12" max="12" width="15" style="1" customWidth="1"/>
     <col min="13" max="14" width="9" style="1" customWidth="1"/>
     <col min="15" max="15" width="14.3516" style="1" customWidth="1"/>
@@ -1442,8 +1454,12 @@
       <c r="I1" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s" s="2">
+        <v>10</v>
+      </c>
       <c r="L1" s="2"/>
       <c r="M1" s="3"/>
       <c r="N1" s="4"/>
@@ -1469,34 +1485,38 @@
     </row>
     <row r="2" ht="16" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="C2" t="s" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E2" t="s" s="2">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="F2" t="s" s="6">
+        <v>14</v>
+      </c>
+      <c r="G2" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="H2" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s" s="2">
         <v>12</v>
       </c>
-      <c r="G2" t="s" s="6">
+      <c r="J2" t="s" s="2">
+        <v>16</v>
+      </c>
+      <c r="K2" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="H2" t="s" s="6">
-        <v>13</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>10</v>
-      </c>
-      <c r="J2" s="6"/>
-      <c r="K2" s="2"/>
       <c r="L2" s="6"/>
       <c r="M2" s="3"/>
       <c r="N2" s="4"/>
@@ -1522,34 +1542,38 @@
     </row>
     <row r="3" ht="16" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>22</v>
-      </c>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
+        <v>25</v>
+      </c>
+      <c r="J3" t="s" s="2">
+        <v>26</v>
+      </c>
+      <c r="K3" t="s" s="2">
+        <v>27</v>
+      </c>
       <c r="L3" s="2"/>
       <c r="M3" s="3"/>
       <c r="N3" s="4"/>
@@ -1579,25 +1603,29 @@
         <v>1</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="G4" s="9"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="2"/>
+      <c r="J4" t="s" s="2">
+        <v>32</v>
+      </c>
+      <c r="K4" t="s" s="2">
+        <v>33</v>
+      </c>
       <c r="L4" s="9"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="12"/>
+      <c r="M4" s="10"/>
+      <c r="N4" s="11"/>
       <c r="O4" s="5"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
@@ -1628,11 +1656,11 @@
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="13"/>
+      <c r="J5" s="12"/>
       <c r="K5" s="9"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="11"/>
-      <c r="N5" s="12"/>
+      <c r="M5" s="10"/>
+      <c r="N5" s="11"/>
       <c r="O5" s="5"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
@@ -1654,19 +1682,19 @@
       <c r="AG5" s="5"/>
     </row>
     <row r="6" ht="16" customHeight="1">
-      <c r="A6" s="14"/>
-      <c r="B6" s="14"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="14"/>
-      <c r="G6" s="15"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="14"/>
-      <c r="M6" s="16"/>
+      <c r="A6" s="13"/>
+      <c r="B6" s="13"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="13"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="14"/>
+      <c r="L6" s="13"/>
+      <c r="M6" s="15"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -1689,18 +1717,18 @@
       <c r="AG6" s="5"/>
     </row>
     <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="17"/>
-      <c r="B7" s="17"/>
-      <c r="C7" s="18"/>
-      <c r="D7" s="18"/>
-      <c r="E7" s="18"/>
-      <c r="F7" s="17"/>
-      <c r="G7" s="18"/>
-      <c r="H7" s="17"/>
-      <c r="I7" s="18"/>
-      <c r="J7" s="18"/>
-      <c r="K7" s="18"/>
-      <c r="L7" s="17"/>
+      <c r="A7" s="16"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+      <c r="F7" s="16"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="16"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
+      <c r="L7" s="16"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
@@ -1724,18 +1752,18 @@
       <c r="AG7" s="5"/>
     </row>
     <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="17"/>
-      <c r="B8" s="17"/>
-      <c r="C8" s="18"/>
-      <c r="D8" s="18"/>
-      <c r="E8" s="18"/>
-      <c r="F8" s="17"/>
-      <c r="G8" s="18"/>
-      <c r="H8" s="17"/>
-      <c r="I8" s="18"/>
-      <c r="J8" s="18"/>
-      <c r="K8" s="18"/>
-      <c r="L8" s="17"/>
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="17"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
+      <c r="L8" s="16"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
@@ -1759,18 +1787,18 @@
       <c r="AG8" s="5"/>
     </row>
     <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="17"/>
-      <c r="B9" s="17"/>
-      <c r="C9" s="18"/>
-      <c r="D9" s="18"/>
-      <c r="E9" s="18"/>
-      <c r="F9" s="17"/>
-      <c r="G9" s="18"/>
-      <c r="H9" s="18"/>
-      <c r="I9" s="18"/>
-      <c r="J9" s="18"/>
-      <c r="K9" s="18"/>
-      <c r="L9" s="17"/>
+      <c r="A9" s="16"/>
+      <c r="B9" s="16"/>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+      <c r="F9" s="16"/>
+      <c r="G9" s="17"/>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17"/>
+      <c r="K9" s="17"/>
+      <c r="L9" s="16"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -1794,18 +1822,18 @@
       <c r="AG9" s="5"/>
     </row>
     <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
-      <c r="E10" s="18"/>
-      <c r="F10" s="17"/>
-      <c r="G10" s="18"/>
-      <c r="H10" s="18"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="17"/>
+      <c r="A10" s="16"/>
+      <c r="B10" s="16"/>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+      <c r="F10" s="16"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17"/>
+      <c r="K10" s="17"/>
+      <c r="L10" s="16"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -1829,18 +1857,18 @@
       <c r="AG10" s="5"/>
     </row>
     <row r="11" ht="16" customHeight="1">
-      <c r="A11" s="17"/>
-      <c r="B11" s="17"/>
-      <c r="C11" s="18"/>
-      <c r="D11" s="18"/>
-      <c r="E11" s="18"/>
-      <c r="F11" s="17"/>
-      <c r="G11" s="18"/>
-      <c r="H11" s="18"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="17"/>
+      <c r="A11" s="16"/>
+      <c r="B11" s="16"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+      <c r="F11" s="16"/>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
+      <c r="L11" s="16"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -1864,18 +1892,18 @@
       <c r="AG11" s="5"/>
     </row>
     <row r="12" ht="16" customHeight="1">
-      <c r="A12" s="17"/>
-      <c r="B12" s="17"/>
-      <c r="C12" s="18"/>
-      <c r="D12" s="18"/>
-      <c r="E12" s="18"/>
-      <c r="F12" s="17"/>
-      <c r="G12" s="18"/>
-      <c r="H12" s="18"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="17"/>
+      <c r="A12" s="16"/>
+      <c r="B12" s="16"/>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+      <c r="F12" s="16"/>
+      <c r="G12" s="17"/>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
+      <c r="L12" s="16"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -1899,18 +1927,18 @@
       <c r="AG12" s="5"/>
     </row>
     <row r="13" ht="16" customHeight="1">
-      <c r="A13" s="17"/>
-      <c r="B13" s="17"/>
-      <c r="C13" s="18"/>
-      <c r="D13" s="18"/>
-      <c r="E13" s="18"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="17"/>
-      <c r="I13" s="18"/>
-      <c r="J13" s="18"/>
-      <c r="K13" s="18"/>
-      <c r="L13" s="17"/>
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="18"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
+      <c r="L13" s="16"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -1934,18 +1962,18 @@
       <c r="AG13" s="5"/>
     </row>
     <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="17"/>
-      <c r="B14" s="17"/>
-      <c r="C14" s="18"/>
-      <c r="D14" s="18"/>
-      <c r="E14" s="18"/>
-      <c r="F14" s="17"/>
-      <c r="G14" s="19"/>
-      <c r="H14" s="17"/>
-      <c r="I14" s="18"/>
-      <c r="J14" s="18"/>
-      <c r="K14" s="18"/>
-      <c r="L14" s="17"/>
+      <c r="A14" s="16"/>
+      <c r="B14" s="16"/>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="16"/>
+      <c r="G14" s="18"/>
+      <c r="H14" s="16"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17"/>
+      <c r="K14" s="17"/>
+      <c r="L14" s="16"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
@@ -1969,18 +1997,18 @@
       <c r="AG14" s="5"/>
     </row>
     <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="17"/>
-      <c r="B15" s="17"/>
-      <c r="C15" s="18"/>
-      <c r="D15" s="18"/>
-      <c r="E15" s="18"/>
-      <c r="F15" s="17"/>
-      <c r="G15" s="18"/>
-      <c r="H15" s="17"/>
-      <c r="I15" s="18"/>
-      <c r="J15" s="18"/>
-      <c r="K15" s="18"/>
-      <c r="L15" s="17"/>
+      <c r="A15" s="16"/>
+      <c r="B15" s="16"/>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="16"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="16"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
+      <c r="L15" s="16"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
@@ -2004,39 +2032,39 @@
       <c r="AG15" s="5"/>
     </row>
     <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="20"/>
-      <c r="B16" s="20"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="21"/>
-      <c r="E16" s="21"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="21"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="21"/>
-      <c r="J16" s="21"/>
-      <c r="K16" s="21"/>
-      <c r="L16" s="20"/>
-      <c r="M16" s="22"/>
-      <c r="N16" s="22"/>
-      <c r="O16" s="22"/>
-      <c r="P16" s="22"/>
-      <c r="Q16" s="22"/>
-      <c r="R16" s="22"/>
-      <c r="S16" s="22"/>
-      <c r="T16" s="22"/>
-      <c r="U16" s="22"/>
-      <c r="V16" s="22"/>
-      <c r="W16" s="22"/>
-      <c r="X16" s="22"/>
-      <c r="Y16" s="22"/>
-      <c r="Z16" s="22"/>
-      <c r="AA16" s="22"/>
-      <c r="AB16" s="22"/>
-      <c r="AC16" s="22"/>
-      <c r="AD16" s="22"/>
-      <c r="AE16" s="22"/>
-      <c r="AF16" s="22"/>
-      <c r="AG16" s="22"/>
+      <c r="A16" s="19"/>
+      <c r="B16" s="19"/>
+      <c r="C16" s="20"/>
+      <c r="D16" s="20"/>
+      <c r="E16" s="20"/>
+      <c r="F16" s="19"/>
+      <c r="G16" s="20"/>
+      <c r="H16" s="19"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
+      <c r="L16" s="19"/>
+      <c r="M16" s="21"/>
+      <c r="N16" s="21"/>
+      <c r="O16" s="21"/>
+      <c r="P16" s="21"/>
+      <c r="Q16" s="21"/>
+      <c r="R16" s="21"/>
+      <c r="S16" s="21"/>
+      <c r="T16" s="21"/>
+      <c r="U16" s="21"/>
+      <c r="V16" s="21"/>
+      <c r="W16" s="21"/>
+      <c r="X16" s="21"/>
+      <c r="Y16" s="21"/>
+      <c r="Z16" s="21"/>
+      <c r="AA16" s="21"/>
+      <c r="AB16" s="21"/>
+      <c r="AC16" s="21"/>
+      <c r="AD16" s="21"/>
+      <c r="AE16" s="21"/>
+      <c r="AF16" s="21"/>
+      <c r="AG16" s="21"/>
     </row>
     <row r="17" ht="13.8" customHeight="1">
       <c r="A17" s="9"/>
@@ -2044,34 +2072,34 @@
       <c r="C17" s="2"/>
       <c r="D17" s="2"/>
       <c r="E17" s="2"/>
-      <c r="F17" s="11"/>
-      <c r="G17" s="11"/>
-      <c r="H17" s="11"/>
-      <c r="I17" s="11"/>
-      <c r="J17" s="11"/>
-      <c r="K17" s="11"/>
-      <c r="L17" s="11"/>
-      <c r="M17" s="11"/>
-      <c r="N17" s="11"/>
-      <c r="O17" s="11"/>
-      <c r="P17" s="11"/>
-      <c r="Q17" s="11"/>
-      <c r="R17" s="11"/>
-      <c r="S17" s="11"/>
-      <c r="T17" s="11"/>
-      <c r="U17" s="11"/>
-      <c r="V17" s="11"/>
-      <c r="W17" s="11"/>
-      <c r="X17" s="11"/>
-      <c r="Y17" s="11"/>
-      <c r="Z17" s="11"/>
-      <c r="AA17" s="11"/>
-      <c r="AB17" s="11"/>
-      <c r="AC17" s="11"/>
-      <c r="AD17" s="11"/>
-      <c r="AE17" s="11"/>
-      <c r="AF17" s="11"/>
-      <c r="AG17" s="11"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
+      <c r="K17" s="10"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10"/>
+      <c r="O17" s="10"/>
+      <c r="P17" s="10"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10"/>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10"/>
+      <c r="V17" s="10"/>
+      <c r="W17" s="10"/>
+      <c r="X17" s="10"/>
+      <c r="Y17" s="10"/>
+      <c r="Z17" s="10"/>
+      <c r="AA17" s="10"/>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="10"/>
+      <c r="AG17" s="10"/>
     </row>
     <row r="18" ht="13.8" customHeight="1">
       <c r="A18" s="9"/>
@@ -2079,34 +2107,34 @@
       <c r="C18" s="2"/>
       <c r="D18" s="2"/>
       <c r="E18" s="2"/>
-      <c r="F18" s="11"/>
-      <c r="G18" s="11"/>
-      <c r="H18" s="11"/>
-      <c r="I18" s="11"/>
-      <c r="J18" s="11"/>
-      <c r="K18" s="11"/>
-      <c r="L18" s="11"/>
-      <c r="M18" s="11"/>
-      <c r="N18" s="11"/>
-      <c r="O18" s="11"/>
-      <c r="P18" s="11"/>
-      <c r="Q18" s="11"/>
-      <c r="R18" s="11"/>
-      <c r="S18" s="11"/>
-      <c r="T18" s="11"/>
-      <c r="U18" s="11"/>
-      <c r="V18" s="11"/>
-      <c r="W18" s="11"/>
-      <c r="X18" s="11"/>
-      <c r="Y18" s="11"/>
-      <c r="Z18" s="11"/>
-      <c r="AA18" s="11"/>
-      <c r="AB18" s="11"/>
-      <c r="AC18" s="11"/>
-      <c r="AD18" s="11"/>
-      <c r="AE18" s="11"/>
-      <c r="AF18" s="11"/>
-      <c r="AG18" s="11"/>
+      <c r="F18" s="10"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="10"/>
+      <c r="I18" s="10"/>
+      <c r="J18" s="10"/>
+      <c r="K18" s="10"/>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10"/>
+      <c r="O18" s="10"/>
+      <c r="P18" s="10"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10"/>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10"/>
+      <c r="V18" s="10"/>
+      <c r="W18" s="10"/>
+      <c r="X18" s="10"/>
+      <c r="Y18" s="10"/>
+      <c r="Z18" s="10"/>
+      <c r="AA18" s="10"/>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="10"/>
+      <c r="AG18" s="10"/>
     </row>
     <row r="19" ht="13.8" customHeight="1">
       <c r="A19" s="9"/>
@@ -2114,34 +2142,34 @@
       <c r="C19" s="2"/>
       <c r="D19" s="2"/>
       <c r="E19" s="2"/>
-      <c r="F19" s="11"/>
-      <c r="G19" s="11"/>
-      <c r="H19" s="11"/>
-      <c r="I19" s="11"/>
-      <c r="J19" s="11"/>
-      <c r="K19" s="11"/>
-      <c r="L19" s="11"/>
-      <c r="M19" s="11"/>
-      <c r="N19" s="11"/>
-      <c r="O19" s="11"/>
-      <c r="P19" s="11"/>
-      <c r="Q19" s="11"/>
-      <c r="R19" s="11"/>
-      <c r="S19" s="11"/>
-      <c r="T19" s="11"/>
-      <c r="U19" s="11"/>
-      <c r="V19" s="11"/>
-      <c r="W19" s="11"/>
-      <c r="X19" s="11"/>
-      <c r="Y19" s="11"/>
-      <c r="Z19" s="11"/>
-      <c r="AA19" s="11"/>
-      <c r="AB19" s="11"/>
-      <c r="AC19" s="11"/>
-      <c r="AD19" s="11"/>
-      <c r="AE19" s="11"/>
-      <c r="AF19" s="11"/>
-      <c r="AG19" s="11"/>
+      <c r="F19" s="10"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="10"/>
+      <c r="I19" s="10"/>
+      <c r="J19" s="10"/>
+      <c r="K19" s="10"/>
+      <c r="L19" s="10"/>
+      <c r="M19" s="10"/>
+      <c r="N19" s="10"/>
+      <c r="O19" s="10"/>
+      <c r="P19" s="10"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10"/>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10"/>
+      <c r="V19" s="10"/>
+      <c r="W19" s="10"/>
+      <c r="X19" s="10"/>
+      <c r="Y19" s="10"/>
+      <c r="Z19" s="10"/>
+      <c r="AA19" s="10"/>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="10"/>
+      <c r="AG19" s="10"/>
     </row>
     <row r="20" ht="13.8" customHeight="1">
       <c r="A20" s="9"/>
@@ -2149,34 +2177,34 @@
       <c r="C20" s="2"/>
       <c r="D20" s="2"/>
       <c r="E20" s="2"/>
-      <c r="F20" s="11"/>
-      <c r="G20" s="11"/>
-      <c r="H20" s="11"/>
-      <c r="I20" s="11"/>
-      <c r="J20" s="11"/>
-      <c r="K20" s="11"/>
-      <c r="L20" s="11"/>
-      <c r="M20" s="11"/>
-      <c r="N20" s="11"/>
-      <c r="O20" s="11"/>
-      <c r="P20" s="11"/>
-      <c r="Q20" s="11"/>
-      <c r="R20" s="11"/>
-      <c r="S20" s="11"/>
-      <c r="T20" s="11"/>
-      <c r="U20" s="11"/>
-      <c r="V20" s="11"/>
-      <c r="W20" s="11"/>
-      <c r="X20" s="11"/>
-      <c r="Y20" s="11"/>
-      <c r="Z20" s="11"/>
-      <c r="AA20" s="11"/>
-      <c r="AB20" s="11"/>
-      <c r="AC20" s="11"/>
-      <c r="AD20" s="11"/>
-      <c r="AE20" s="11"/>
-      <c r="AF20" s="11"/>
-      <c r="AG20" s="11"/>
+      <c r="F20" s="10"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="10"/>
+      <c r="I20" s="10"/>
+      <c r="J20" s="10"/>
+      <c r="K20" s="10"/>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10"/>
+      <c r="P20" s="10"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10"/>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10"/>
+      <c r="V20" s="10"/>
+      <c r="W20" s="10"/>
+      <c r="X20" s="10"/>
+      <c r="Y20" s="10"/>
+      <c r="Z20" s="10"/>
+      <c r="AA20" s="10"/>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="10"/>
+      <c r="AG20" s="10"/>
     </row>
     <row r="21" ht="13.8" customHeight="1">
       <c r="A21" s="9"/>
@@ -2184,34 +2212,34 @@
       <c r="C21" s="2"/>
       <c r="D21" s="2"/>
       <c r="E21" s="2"/>
-      <c r="F21" s="11"/>
-      <c r="G21" s="11"/>
-      <c r="H21" s="11"/>
-      <c r="I21" s="11"/>
-      <c r="J21" s="11"/>
-      <c r="K21" s="11"/>
-      <c r="L21" s="11"/>
-      <c r="M21" s="11"/>
-      <c r="N21" s="11"/>
-      <c r="O21" s="11"/>
-      <c r="P21" s="11"/>
-      <c r="Q21" s="11"/>
-      <c r="R21" s="11"/>
-      <c r="S21" s="11"/>
-      <c r="T21" s="11"/>
-      <c r="U21" s="11"/>
-      <c r="V21" s="11"/>
-      <c r="W21" s="11"/>
-      <c r="X21" s="11"/>
-      <c r="Y21" s="11"/>
-      <c r="Z21" s="11"/>
-      <c r="AA21" s="11"/>
-      <c r="AB21" s="11"/>
-      <c r="AC21" s="11"/>
-      <c r="AD21" s="11"/>
-      <c r="AE21" s="11"/>
-      <c r="AF21" s="11"/>
-      <c r="AG21" s="11"/>
+      <c r="F21" s="10"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="10"/>
+      <c r="I21" s="10"/>
+      <c r="J21" s="10"/>
+      <c r="K21" s="10"/>
+      <c r="L21" s="10"/>
+      <c r="M21" s="10"/>
+      <c r="N21" s="10"/>
+      <c r="O21" s="10"/>
+      <c r="P21" s="10"/>
+      <c r="Q21" s="10"/>
+      <c r="R21" s="10"/>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10"/>
+      <c r="U21" s="10"/>
+      <c r="V21" s="10"/>
+      <c r="W21" s="10"/>
+      <c r="X21" s="10"/>
+      <c r="Y21" s="10"/>
+      <c r="Z21" s="10"/>
+      <c r="AA21" s="10"/>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="10"/>
+      <c r="AG21" s="10"/>
     </row>
     <row r="22" ht="13.8" customHeight="1">
       <c r="A22" s="9"/>
@@ -2219,34 +2247,34 @@
       <c r="C22" s="2"/>
       <c r="D22" s="2"/>
       <c r="E22" s="2"/>
-      <c r="F22" s="11"/>
-      <c r="G22" s="11"/>
-      <c r="H22" s="11"/>
-      <c r="I22" s="11"/>
-      <c r="J22" s="11"/>
-      <c r="K22" s="11"/>
-      <c r="L22" s="11"/>
-      <c r="M22" s="11"/>
-      <c r="N22" s="11"/>
-      <c r="O22" s="11"/>
-      <c r="P22" s="11"/>
-      <c r="Q22" s="11"/>
-      <c r="R22" s="11"/>
-      <c r="S22" s="11"/>
-      <c r="T22" s="11"/>
-      <c r="U22" s="11"/>
-      <c r="V22" s="11"/>
-      <c r="W22" s="11"/>
-      <c r="X22" s="11"/>
-      <c r="Y22" s="11"/>
-      <c r="Z22" s="11"/>
-      <c r="AA22" s="11"/>
-      <c r="AB22" s="11"/>
-      <c r="AC22" s="11"/>
-      <c r="AD22" s="11"/>
-      <c r="AE22" s="11"/>
-      <c r="AF22" s="11"/>
-      <c r="AG22" s="11"/>
+      <c r="F22" s="10"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="10"/>
+      <c r="I22" s="10"/>
+      <c r="J22" s="10"/>
+      <c r="K22" s="10"/>
+      <c r="L22" s="10"/>
+      <c r="M22" s="10"/>
+      <c r="N22" s="10"/>
+      <c r="O22" s="10"/>
+      <c r="P22" s="10"/>
+      <c r="Q22" s="10"/>
+      <c r="R22" s="10"/>
+      <c r="S22" s="10"/>
+      <c r="T22" s="10"/>
+      <c r="U22" s="10"/>
+      <c r="V22" s="10"/>
+      <c r="W22" s="10"/>
+      <c r="X22" s="10"/>
+      <c r="Y22" s="10"/>
+      <c r="Z22" s="10"/>
+      <c r="AA22" s="10"/>
+      <c r="AB22" s="10"/>
+      <c r="AC22" s="10"/>
+      <c r="AD22" s="10"/>
+      <c r="AE22" s="10"/>
+      <c r="AF22" s="10"/>
+      <c r="AG22" s="10"/>
     </row>
     <row r="23" ht="13.8" customHeight="1">
       <c r="A23" s="9"/>
@@ -2254,34 +2282,34 @@
       <c r="C23" s="2"/>
       <c r="D23" s="2"/>
       <c r="E23" s="2"/>
-      <c r="F23" s="11"/>
-      <c r="G23" s="11"/>
-      <c r="H23" s="11"/>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
-      <c r="K23" s="11"/>
-      <c r="L23" s="11"/>
-      <c r="M23" s="11"/>
-      <c r="N23" s="11"/>
-      <c r="O23" s="11"/>
-      <c r="P23" s="11"/>
-      <c r="Q23" s="11"/>
-      <c r="R23" s="11"/>
-      <c r="S23" s="11"/>
-      <c r="T23" s="11"/>
-      <c r="U23" s="11"/>
-      <c r="V23" s="11"/>
-      <c r="W23" s="11"/>
-      <c r="X23" s="11"/>
-      <c r="Y23" s="11"/>
-      <c r="Z23" s="11"/>
-      <c r="AA23" s="11"/>
-      <c r="AB23" s="11"/>
-      <c r="AC23" s="11"/>
-      <c r="AD23" s="11"/>
-      <c r="AE23" s="11"/>
-      <c r="AF23" s="11"/>
-      <c r="AG23" s="11"/>
+      <c r="F23" s="10"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="10"/>
+      <c r="I23" s="10"/>
+      <c r="J23" s="10"/>
+      <c r="K23" s="10"/>
+      <c r="L23" s="10"/>
+      <c r="M23" s="10"/>
+      <c r="N23" s="10"/>
+      <c r="O23" s="10"/>
+      <c r="P23" s="10"/>
+      <c r="Q23" s="10"/>
+      <c r="R23" s="10"/>
+      <c r="S23" s="10"/>
+      <c r="T23" s="10"/>
+      <c r="U23" s="10"/>
+      <c r="V23" s="10"/>
+      <c r="W23" s="10"/>
+      <c r="X23" s="10"/>
+      <c r="Y23" s="10"/>
+      <c r="Z23" s="10"/>
+      <c r="AA23" s="10"/>
+      <c r="AB23" s="10"/>
+      <c r="AC23" s="10"/>
+      <c r="AD23" s="10"/>
+      <c r="AE23" s="10"/>
+      <c r="AF23" s="10"/>
+      <c r="AG23" s="10"/>
     </row>
     <row r="24" ht="13.8" customHeight="1">
       <c r="A24" s="9"/>
@@ -2289,34 +2317,34 @@
       <c r="C24" s="2"/>
       <c r="D24" s="2"/>
       <c r="E24" s="2"/>
-      <c r="F24" s="11"/>
-      <c r="G24" s="11"/>
-      <c r="H24" s="11"/>
-      <c r="I24" s="11"/>
-      <c r="J24" s="11"/>
-      <c r="K24" s="11"/>
-      <c r="L24" s="11"/>
-      <c r="M24" s="11"/>
-      <c r="N24" s="11"/>
-      <c r="O24" s="11"/>
-      <c r="P24" s="11"/>
-      <c r="Q24" s="11"/>
-      <c r="R24" s="11"/>
-      <c r="S24" s="11"/>
-      <c r="T24" s="11"/>
-      <c r="U24" s="11"/>
-      <c r="V24" s="11"/>
-      <c r="W24" s="11"/>
-      <c r="X24" s="11"/>
-      <c r="Y24" s="11"/>
-      <c r="Z24" s="11"/>
-      <c r="AA24" s="11"/>
-      <c r="AB24" s="11"/>
-      <c r="AC24" s="11"/>
-      <c r="AD24" s="11"/>
-      <c r="AE24" s="11"/>
-      <c r="AF24" s="11"/>
-      <c r="AG24" s="11"/>
+      <c r="F24" s="10"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="10"/>
+      <c r="I24" s="10"/>
+      <c r="J24" s="10"/>
+      <c r="K24" s="10"/>
+      <c r="L24" s="10"/>
+      <c r="M24" s="10"/>
+      <c r="N24" s="10"/>
+      <c r="O24" s="10"/>
+      <c r="P24" s="10"/>
+      <c r="Q24" s="10"/>
+      <c r="R24" s="10"/>
+      <c r="S24" s="10"/>
+      <c r="T24" s="10"/>
+      <c r="U24" s="10"/>
+      <c r="V24" s="10"/>
+      <c r="W24" s="10"/>
+      <c r="X24" s="10"/>
+      <c r="Y24" s="10"/>
+      <c r="Z24" s="10"/>
+      <c r="AA24" s="10"/>
+      <c r="AB24" s="10"/>
+      <c r="AC24" s="10"/>
+      <c r="AD24" s="10"/>
+      <c r="AE24" s="10"/>
+      <c r="AF24" s="10"/>
+      <c r="AG24" s="10"/>
     </row>
     <row r="25" ht="13.8" customHeight="1">
       <c r="A25" s="9"/>
@@ -2324,34 +2352,34 @@
       <c r="C25" s="2"/>
       <c r="D25" s="2"/>
       <c r="E25" s="2"/>
-      <c r="F25" s="11"/>
-      <c r="G25" s="11"/>
-      <c r="H25" s="11"/>
-      <c r="I25" s="11"/>
-      <c r="J25" s="11"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="11"/>
-      <c r="N25" s="11"/>
-      <c r="O25" s="11"/>
-      <c r="P25" s="11"/>
-      <c r="Q25" s="11"/>
-      <c r="R25" s="11"/>
-      <c r="S25" s="11"/>
-      <c r="T25" s="11"/>
-      <c r="U25" s="11"/>
-      <c r="V25" s="11"/>
-      <c r="W25" s="11"/>
-      <c r="X25" s="11"/>
-      <c r="Y25" s="11"/>
-      <c r="Z25" s="11"/>
-      <c r="AA25" s="11"/>
-      <c r="AB25" s="11"/>
-      <c r="AC25" s="11"/>
-      <c r="AD25" s="11"/>
-      <c r="AE25" s="11"/>
-      <c r="AF25" s="11"/>
-      <c r="AG25" s="11"/>
+      <c r="F25" s="10"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="10"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="10"/>
+      <c r="K25" s="10"/>
+      <c r="L25" s="10"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="10"/>
+      <c r="O25" s="10"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+      <c r="S25" s="10"/>
+      <c r="T25" s="10"/>
+      <c r="U25" s="10"/>
+      <c r="V25" s="10"/>
+      <c r="W25" s="10"/>
+      <c r="X25" s="10"/>
+      <c r="Y25" s="10"/>
+      <c r="Z25" s="10"/>
+      <c r="AA25" s="10"/>
+      <c r="AB25" s="10"/>
+      <c r="AC25" s="10"/>
+      <c r="AD25" s="10"/>
+      <c r="AE25" s="10"/>
+      <c r="AF25" s="10"/>
+      <c r="AG25" s="10"/>
     </row>
     <row r="26" ht="13.8" customHeight="1">
       <c r="A26" s="9"/>
@@ -2359,34 +2387,34 @@
       <c r="C26" s="2"/>
       <c r="D26" s="2"/>
       <c r="E26" s="2"/>
-      <c r="F26" s="11"/>
-      <c r="G26" s="11"/>
-      <c r="H26" s="11"/>
-      <c r="I26" s="11"/>
-      <c r="J26" s="11"/>
-      <c r="K26" s="11"/>
-      <c r="L26" s="11"/>
-      <c r="M26" s="11"/>
-      <c r="N26" s="11"/>
-      <c r="O26" s="11"/>
-      <c r="P26" s="11"/>
-      <c r="Q26" s="11"/>
-      <c r="R26" s="11"/>
-      <c r="S26" s="11"/>
-      <c r="T26" s="11"/>
-      <c r="U26" s="11"/>
-      <c r="V26" s="11"/>
-      <c r="W26" s="11"/>
-      <c r="X26" s="11"/>
-      <c r="Y26" s="11"/>
-      <c r="Z26" s="11"/>
-      <c r="AA26" s="11"/>
-      <c r="AB26" s="11"/>
-      <c r="AC26" s="11"/>
-      <c r="AD26" s="11"/>
-      <c r="AE26" s="11"/>
-      <c r="AF26" s="11"/>
-      <c r="AG26" s="11"/>
+      <c r="F26" s="10"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="10"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="10"/>
+      <c r="K26" s="10"/>
+      <c r="L26" s="10"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="10"/>
+      <c r="O26" s="10"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+      <c r="S26" s="10"/>
+      <c r="T26" s="10"/>
+      <c r="U26" s="10"/>
+      <c r="V26" s="10"/>
+      <c r="W26" s="10"/>
+      <c r="X26" s="10"/>
+      <c r="Y26" s="10"/>
+      <c r="Z26" s="10"/>
+      <c r="AA26" s="10"/>
+      <c r="AB26" s="10"/>
+      <c r="AC26" s="10"/>
+      <c r="AD26" s="10"/>
+      <c r="AE26" s="10"/>
+      <c r="AF26" s="10"/>
+      <c r="AG26" s="10"/>
     </row>
     <row r="27" ht="13.8" customHeight="1">
       <c r="A27" s="9"/>
@@ -2394,34 +2422,34 @@
       <c r="C27" s="2"/>
       <c r="D27" s="2"/>
       <c r="E27" s="2"/>
-      <c r="F27" s="11"/>
-      <c r="G27" s="11"/>
-      <c r="H27" s="11"/>
-      <c r="I27" s="11"/>
-      <c r="J27" s="11"/>
-      <c r="K27" s="11"/>
-      <c r="L27" s="11"/>
-      <c r="M27" s="11"/>
-      <c r="N27" s="11"/>
-      <c r="O27" s="11"/>
-      <c r="P27" s="11"/>
-      <c r="Q27" s="11"/>
-      <c r="R27" s="11"/>
-      <c r="S27" s="11"/>
-      <c r="T27" s="11"/>
-      <c r="U27" s="11"/>
-      <c r="V27" s="11"/>
-      <c r="W27" s="11"/>
-      <c r="X27" s="11"/>
-      <c r="Y27" s="11"/>
-      <c r="Z27" s="11"/>
-      <c r="AA27" s="11"/>
-      <c r="AB27" s="11"/>
-      <c r="AC27" s="11"/>
-      <c r="AD27" s="11"/>
-      <c r="AE27" s="11"/>
-      <c r="AF27" s="11"/>
-      <c r="AG27" s="11"/>
+      <c r="F27" s="10"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="10"/>
+      <c r="I27" s="10"/>
+      <c r="J27" s="10"/>
+      <c r="K27" s="10"/>
+      <c r="L27" s="10"/>
+      <c r="M27" s="10"/>
+      <c r="N27" s="10"/>
+      <c r="O27" s="10"/>
+      <c r="P27" s="10"/>
+      <c r="Q27" s="10"/>
+      <c r="R27" s="10"/>
+      <c r="S27" s="10"/>
+      <c r="T27" s="10"/>
+      <c r="U27" s="10"/>
+      <c r="V27" s="10"/>
+      <c r="W27" s="10"/>
+      <c r="X27" s="10"/>
+      <c r="Y27" s="10"/>
+      <c r="Z27" s="10"/>
+      <c r="AA27" s="10"/>
+      <c r="AB27" s="10"/>
+      <c r="AC27" s="10"/>
+      <c r="AD27" s="10"/>
+      <c r="AE27" s="10"/>
+      <c r="AF27" s="10"/>
+      <c r="AG27" s="10"/>
     </row>
     <row r="28" ht="13.8" customHeight="1">
       <c r="A28" s="9"/>
@@ -2429,34 +2457,34 @@
       <c r="C28" s="2"/>
       <c r="D28" s="2"/>
       <c r="E28" s="2"/>
-      <c r="F28" s="11"/>
-      <c r="G28" s="11"/>
-      <c r="H28" s="11"/>
-      <c r="I28" s="11"/>
-      <c r="J28" s="11"/>
-      <c r="K28" s="11"/>
-      <c r="L28" s="11"/>
-      <c r="M28" s="11"/>
-      <c r="N28" s="11"/>
-      <c r="O28" s="11"/>
-      <c r="P28" s="11"/>
-      <c r="Q28" s="11"/>
-      <c r="R28" s="11"/>
-      <c r="S28" s="11"/>
-      <c r="T28" s="11"/>
-      <c r="U28" s="11"/>
-      <c r="V28" s="11"/>
-      <c r="W28" s="11"/>
-      <c r="X28" s="11"/>
-      <c r="Y28" s="11"/>
-      <c r="Z28" s="11"/>
-      <c r="AA28" s="11"/>
-      <c r="AB28" s="11"/>
-      <c r="AC28" s="11"/>
-      <c r="AD28" s="11"/>
-      <c r="AE28" s="11"/>
-      <c r="AF28" s="11"/>
-      <c r="AG28" s="11"/>
+      <c r="F28" s="10"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="10"/>
+      <c r="I28" s="10"/>
+      <c r="J28" s="10"/>
+      <c r="K28" s="10"/>
+      <c r="L28" s="10"/>
+      <c r="M28" s="10"/>
+      <c r="N28" s="10"/>
+      <c r="O28" s="10"/>
+      <c r="P28" s="10"/>
+      <c r="Q28" s="10"/>
+      <c r="R28" s="10"/>
+      <c r="S28" s="10"/>
+      <c r="T28" s="10"/>
+      <c r="U28" s="10"/>
+      <c r="V28" s="10"/>
+      <c r="W28" s="10"/>
+      <c r="X28" s="10"/>
+      <c r="Y28" s="10"/>
+      <c r="Z28" s="10"/>
+      <c r="AA28" s="10"/>
+      <c r="AB28" s="10"/>
+      <c r="AC28" s="10"/>
+      <c r="AD28" s="10"/>
+      <c r="AE28" s="10"/>
+      <c r="AF28" s="10"/>
+      <c r="AG28" s="10"/>
     </row>
     <row r="29" ht="13.8" customHeight="1">
       <c r="A29" s="9"/>
@@ -2464,34 +2492,34 @@
       <c r="C29" s="2"/>
       <c r="D29" s="2"/>
       <c r="E29" s="2"/>
-      <c r="F29" s="11"/>
-      <c r="G29" s="11"/>
-      <c r="H29" s="11"/>
-      <c r="I29" s="11"/>
-      <c r="J29" s="11"/>
-      <c r="K29" s="11"/>
-      <c r="L29" s="11"/>
-      <c r="M29" s="11"/>
-      <c r="N29" s="11"/>
-      <c r="O29" s="11"/>
-      <c r="P29" s="11"/>
-      <c r="Q29" s="11"/>
-      <c r="R29" s="11"/>
-      <c r="S29" s="11"/>
-      <c r="T29" s="11"/>
-      <c r="U29" s="11"/>
-      <c r="V29" s="11"/>
-      <c r="W29" s="11"/>
-      <c r="X29" s="11"/>
-      <c r="Y29" s="11"/>
-      <c r="Z29" s="11"/>
-      <c r="AA29" s="11"/>
-      <c r="AB29" s="11"/>
-      <c r="AC29" s="11"/>
-      <c r="AD29" s="11"/>
-      <c r="AE29" s="11"/>
-      <c r="AF29" s="11"/>
-      <c r="AG29" s="11"/>
+      <c r="F29" s="10"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="10"/>
+      <c r="I29" s="10"/>
+      <c r="J29" s="10"/>
+      <c r="K29" s="10"/>
+      <c r="L29" s="10"/>
+      <c r="M29" s="10"/>
+      <c r="N29" s="10"/>
+      <c r="O29" s="10"/>
+      <c r="P29" s="10"/>
+      <c r="Q29" s="10"/>
+      <c r="R29" s="10"/>
+      <c r="S29" s="10"/>
+      <c r="T29" s="10"/>
+      <c r="U29" s="10"/>
+      <c r="V29" s="10"/>
+      <c r="W29" s="10"/>
+      <c r="X29" s="10"/>
+      <c r="Y29" s="10"/>
+      <c r="Z29" s="10"/>
+      <c r="AA29" s="10"/>
+      <c r="AB29" s="10"/>
+      <c r="AC29" s="10"/>
+      <c r="AD29" s="10"/>
+      <c r="AE29" s="10"/>
+      <c r="AF29" s="10"/>
+      <c r="AG29" s="10"/>
     </row>
     <row r="30" ht="13.8" customHeight="1">
       <c r="A30" s="9"/>
@@ -2499,34 +2527,34 @@
       <c r="C30" s="2"/>
       <c r="D30" s="2"/>
       <c r="E30" s="2"/>
-      <c r="F30" s="11"/>
-      <c r="G30" s="11"/>
-      <c r="H30" s="11"/>
-      <c r="I30" s="11"/>
-      <c r="J30" s="11"/>
-      <c r="K30" s="11"/>
-      <c r="L30" s="11"/>
-      <c r="M30" s="11"/>
-      <c r="N30" s="11"/>
-      <c r="O30" s="11"/>
-      <c r="P30" s="11"/>
-      <c r="Q30" s="11"/>
-      <c r="R30" s="11"/>
-      <c r="S30" s="11"/>
-      <c r="T30" s="11"/>
-      <c r="U30" s="11"/>
-      <c r="V30" s="11"/>
-      <c r="W30" s="11"/>
-      <c r="X30" s="11"/>
-      <c r="Y30" s="11"/>
-      <c r="Z30" s="11"/>
-      <c r="AA30" s="11"/>
-      <c r="AB30" s="11"/>
-      <c r="AC30" s="11"/>
-      <c r="AD30" s="11"/>
-      <c r="AE30" s="11"/>
-      <c r="AF30" s="11"/>
-      <c r="AG30" s="11"/>
+      <c r="F30" s="10"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="10"/>
+      <c r="I30" s="10"/>
+      <c r="J30" s="10"/>
+      <c r="K30" s="10"/>
+      <c r="L30" s="10"/>
+      <c r="M30" s="10"/>
+      <c r="N30" s="10"/>
+      <c r="O30" s="10"/>
+      <c r="P30" s="10"/>
+      <c r="Q30" s="10"/>
+      <c r="R30" s="10"/>
+      <c r="S30" s="10"/>
+      <c r="T30" s="10"/>
+      <c r="U30" s="10"/>
+      <c r="V30" s="10"/>
+      <c r="W30" s="10"/>
+      <c r="X30" s="10"/>
+      <c r="Y30" s="10"/>
+      <c r="Z30" s="10"/>
+      <c r="AA30" s="10"/>
+      <c r="AB30" s="10"/>
+      <c r="AC30" s="10"/>
+      <c r="AD30" s="10"/>
+      <c r="AE30" s="10"/>
+      <c r="AF30" s="10"/>
+      <c r="AG30" s="10"/>
     </row>
     <row r="31" ht="13.8" customHeight="1">
       <c r="A31" s="9"/>
@@ -2534,34 +2562,34 @@
       <c r="C31" s="2"/>
       <c r="D31" s="2"/>
       <c r="E31" s="2"/>
-      <c r="F31" s="11"/>
-      <c r="G31" s="11"/>
-      <c r="H31" s="11"/>
-      <c r="I31" s="11"/>
-      <c r="J31" s="11"/>
-      <c r="K31" s="11"/>
-      <c r="L31" s="11"/>
-      <c r="M31" s="11"/>
-      <c r="N31" s="11"/>
-      <c r="O31" s="11"/>
-      <c r="P31" s="11"/>
-      <c r="Q31" s="11"/>
-      <c r="R31" s="11"/>
-      <c r="S31" s="11"/>
-      <c r="T31" s="11"/>
-      <c r="U31" s="11"/>
-      <c r="V31" s="11"/>
-      <c r="W31" s="11"/>
-      <c r="X31" s="11"/>
-      <c r="Y31" s="11"/>
-      <c r="Z31" s="11"/>
-      <c r="AA31" s="11"/>
-      <c r="AB31" s="11"/>
-      <c r="AC31" s="11"/>
-      <c r="AD31" s="11"/>
-      <c r="AE31" s="11"/>
-      <c r="AF31" s="11"/>
-      <c r="AG31" s="11"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="10"/>
+      <c r="P31" s="10"/>
+      <c r="Q31" s="10"/>
+      <c r="R31" s="10"/>
+      <c r="S31" s="10"/>
+      <c r="T31" s="10"/>
+      <c r="U31" s="10"/>
+      <c r="V31" s="10"/>
+      <c r="W31" s="10"/>
+      <c r="X31" s="10"/>
+      <c r="Y31" s="10"/>
+      <c r="Z31" s="10"/>
+      <c r="AA31" s="10"/>
+      <c r="AB31" s="10"/>
+      <c r="AC31" s="10"/>
+      <c r="AD31" s="10"/>
+      <c r="AE31" s="10"/>
+      <c r="AF31" s="10"/>
+      <c r="AG31" s="10"/>
     </row>
     <row r="32" ht="13.8" customHeight="1">
       <c r="A32" s="9"/>
@@ -2569,34 +2597,34 @@
       <c r="C32" s="2"/>
       <c r="D32" s="2"/>
       <c r="E32" s="2"/>
-      <c r="F32" s="11"/>
-      <c r="G32" s="11"/>
-      <c r="H32" s="11"/>
-      <c r="I32" s="11"/>
-      <c r="J32" s="11"/>
-      <c r="K32" s="11"/>
-      <c r="L32" s="11"/>
-      <c r="M32" s="11"/>
-      <c r="N32" s="11"/>
-      <c r="O32" s="11"/>
-      <c r="P32" s="11"/>
-      <c r="Q32" s="11"/>
-      <c r="R32" s="11"/>
-      <c r="S32" s="11"/>
-      <c r="T32" s="11"/>
-      <c r="U32" s="11"/>
-      <c r="V32" s="11"/>
-      <c r="W32" s="11"/>
-      <c r="X32" s="11"/>
-      <c r="Y32" s="11"/>
-      <c r="Z32" s="11"/>
-      <c r="AA32" s="11"/>
-      <c r="AB32" s="11"/>
-      <c r="AC32" s="11"/>
-      <c r="AD32" s="11"/>
-      <c r="AE32" s="11"/>
-      <c r="AF32" s="11"/>
-      <c r="AG32" s="11"/>
+      <c r="F32" s="10"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="10"/>
+      <c r="I32" s="10"/>
+      <c r="J32" s="10"/>
+      <c r="K32" s="10"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="10"/>
+      <c r="N32" s="10"/>
+      <c r="O32" s="10"/>
+      <c r="P32" s="10"/>
+      <c r="Q32" s="10"/>
+      <c r="R32" s="10"/>
+      <c r="S32" s="10"/>
+      <c r="T32" s="10"/>
+      <c r="U32" s="10"/>
+      <c r="V32" s="10"/>
+      <c r="W32" s="10"/>
+      <c r="X32" s="10"/>
+      <c r="Y32" s="10"/>
+      <c r="Z32" s="10"/>
+      <c r="AA32" s="10"/>
+      <c r="AB32" s="10"/>
+      <c r="AC32" s="10"/>
+      <c r="AD32" s="10"/>
+      <c r="AE32" s="10"/>
+      <c r="AF32" s="10"/>
+      <c r="AG32" s="10"/>
     </row>
     <row r="33" ht="13.8" customHeight="1">
       <c r="A33" s="9"/>
@@ -2604,34 +2632,34 @@
       <c r="C33" s="2"/>
       <c r="D33" s="2"/>
       <c r="E33" s="2"/>
-      <c r="F33" s="11"/>
-      <c r="G33" s="11"/>
-      <c r="H33" s="11"/>
-      <c r="I33" s="11"/>
-      <c r="J33" s="11"/>
-      <c r="K33" s="11"/>
-      <c r="L33" s="11"/>
-      <c r="M33" s="11"/>
-      <c r="N33" s="11"/>
-      <c r="O33" s="11"/>
-      <c r="P33" s="11"/>
-      <c r="Q33" s="11"/>
-      <c r="R33" s="11"/>
-      <c r="S33" s="11"/>
-      <c r="T33" s="11"/>
-      <c r="U33" s="11"/>
-      <c r="V33" s="11"/>
-      <c r="W33" s="11"/>
-      <c r="X33" s="11"/>
-      <c r="Y33" s="11"/>
-      <c r="Z33" s="11"/>
-      <c r="AA33" s="11"/>
-      <c r="AB33" s="11"/>
-      <c r="AC33" s="11"/>
-      <c r="AD33" s="11"/>
-      <c r="AE33" s="11"/>
-      <c r="AF33" s="11"/>
-      <c r="AG33" s="11"/>
+      <c r="F33" s="10"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="10"/>
+      <c r="I33" s="10"/>
+      <c r="J33" s="10"/>
+      <c r="K33" s="10"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="10"/>
+      <c r="N33" s="10"/>
+      <c r="O33" s="10"/>
+      <c r="P33" s="10"/>
+      <c r="Q33" s="10"/>
+      <c r="R33" s="10"/>
+      <c r="S33" s="10"/>
+      <c r="T33" s="10"/>
+      <c r="U33" s="10"/>
+      <c r="V33" s="10"/>
+      <c r="W33" s="10"/>
+      <c r="X33" s="10"/>
+      <c r="Y33" s="10"/>
+      <c r="Z33" s="10"/>
+      <c r="AA33" s="10"/>
+      <c r="AB33" s="10"/>
+      <c r="AC33" s="10"/>
+      <c r="AD33" s="10"/>
+      <c r="AE33" s="10"/>
+      <c r="AF33" s="10"/>
+      <c r="AG33" s="10"/>
     </row>
     <row r="34" ht="13.8" customHeight="1">
       <c r="A34" s="9"/>
@@ -2639,34 +2667,34 @@
       <c r="C34" s="2"/>
       <c r="D34" s="2"/>
       <c r="E34" s="2"/>
-      <c r="F34" s="11"/>
-      <c r="G34" s="11"/>
-      <c r="H34" s="11"/>
-      <c r="I34" s="11"/>
-      <c r="J34" s="11"/>
-      <c r="K34" s="11"/>
-      <c r="L34" s="11"/>
-      <c r="M34" s="11"/>
-      <c r="N34" s="11"/>
-      <c r="O34" s="11"/>
-      <c r="P34" s="11"/>
-      <c r="Q34" s="11"/>
-      <c r="R34" s="11"/>
-      <c r="S34" s="11"/>
-      <c r="T34" s="11"/>
-      <c r="U34" s="11"/>
-      <c r="V34" s="11"/>
-      <c r="W34" s="11"/>
-      <c r="X34" s="11"/>
-      <c r="Y34" s="11"/>
-      <c r="Z34" s="11"/>
-      <c r="AA34" s="11"/>
-      <c r="AB34" s="11"/>
-      <c r="AC34" s="11"/>
-      <c r="AD34" s="11"/>
-      <c r="AE34" s="11"/>
-      <c r="AF34" s="11"/>
-      <c r="AG34" s="11"/>
+      <c r="F34" s="10"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="10"/>
+      <c r="I34" s="10"/>
+      <c r="J34" s="10"/>
+      <c r="K34" s="10"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="10"/>
+      <c r="N34" s="10"/>
+      <c r="O34" s="10"/>
+      <c r="P34" s="10"/>
+      <c r="Q34" s="10"/>
+      <c r="R34" s="10"/>
+      <c r="S34" s="10"/>
+      <c r="T34" s="10"/>
+      <c r="U34" s="10"/>
+      <c r="V34" s="10"/>
+      <c r="W34" s="10"/>
+      <c r="X34" s="10"/>
+      <c r="Y34" s="10"/>
+      <c r="Z34" s="10"/>
+      <c r="AA34" s="10"/>
+      <c r="AB34" s="10"/>
+      <c r="AC34" s="10"/>
+      <c r="AD34" s="10"/>
+      <c r="AE34" s="10"/>
+      <c r="AF34" s="10"/>
+      <c r="AG34" s="10"/>
     </row>
     <row r="35" ht="13.8" customHeight="1">
       <c r="A35" s="9"/>
@@ -2674,34 +2702,34 @@
       <c r="C35" s="2"/>
       <c r="D35" s="2"/>
       <c r="E35" s="2"/>
-      <c r="F35" s="11"/>
-      <c r="G35" s="11"/>
-      <c r="H35" s="11"/>
-      <c r="I35" s="11"/>
-      <c r="J35" s="11"/>
-      <c r="K35" s="11"/>
-      <c r="L35" s="11"/>
-      <c r="M35" s="11"/>
-      <c r="N35" s="11"/>
-      <c r="O35" s="11"/>
-      <c r="P35" s="11"/>
-      <c r="Q35" s="11"/>
-      <c r="R35" s="11"/>
-      <c r="S35" s="11"/>
-      <c r="T35" s="11"/>
-      <c r="U35" s="11"/>
-      <c r="V35" s="11"/>
-      <c r="W35" s="11"/>
-      <c r="X35" s="11"/>
-      <c r="Y35" s="11"/>
-      <c r="Z35" s="11"/>
-      <c r="AA35" s="11"/>
-      <c r="AB35" s="11"/>
-      <c r="AC35" s="11"/>
-      <c r="AD35" s="11"/>
-      <c r="AE35" s="11"/>
-      <c r="AF35" s="11"/>
-      <c r="AG35" s="11"/>
+      <c r="F35" s="10"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="10"/>
+      <c r="I35" s="10"/>
+      <c r="J35" s="10"/>
+      <c r="K35" s="10"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="10"/>
+      <c r="N35" s="10"/>
+      <c r="O35" s="10"/>
+      <c r="P35" s="10"/>
+      <c r="Q35" s="10"/>
+      <c r="R35" s="10"/>
+      <c r="S35" s="10"/>
+      <c r="T35" s="10"/>
+      <c r="U35" s="10"/>
+      <c r="V35" s="10"/>
+      <c r="W35" s="10"/>
+      <c r="X35" s="10"/>
+      <c r="Y35" s="10"/>
+      <c r="Z35" s="10"/>
+      <c r="AA35" s="10"/>
+      <c r="AB35" s="10"/>
+      <c r="AC35" s="10"/>
+      <c r="AD35" s="10"/>
+      <c r="AE35" s="10"/>
+      <c r="AF35" s="10"/>
+      <c r="AG35" s="10"/>
     </row>
     <row r="36" ht="13.8" customHeight="1">
       <c r="A36" s="9"/>
@@ -2709,34 +2737,34 @@
       <c r="C36" s="2"/>
       <c r="D36" s="2"/>
       <c r="E36" s="2"/>
-      <c r="F36" s="11"/>
-      <c r="G36" s="11"/>
-      <c r="H36" s="11"/>
-      <c r="I36" s="11"/>
-      <c r="J36" s="11"/>
-      <c r="K36" s="11"/>
-      <c r="L36" s="11"/>
-      <c r="M36" s="11"/>
-      <c r="N36" s="11"/>
-      <c r="O36" s="11"/>
-      <c r="P36" s="11"/>
-      <c r="Q36" s="11"/>
-      <c r="R36" s="11"/>
-      <c r="S36" s="11"/>
-      <c r="T36" s="11"/>
-      <c r="U36" s="11"/>
-      <c r="V36" s="11"/>
-      <c r="W36" s="11"/>
-      <c r="X36" s="11"/>
-      <c r="Y36" s="11"/>
-      <c r="Z36" s="11"/>
-      <c r="AA36" s="11"/>
-      <c r="AB36" s="11"/>
-      <c r="AC36" s="11"/>
-      <c r="AD36" s="11"/>
-      <c r="AE36" s="11"/>
-      <c r="AF36" s="11"/>
-      <c r="AG36" s="11"/>
+      <c r="F36" s="10"/>
+      <c r="G36" s="10"/>
+      <c r="H36" s="10"/>
+      <c r="I36" s="10"/>
+      <c r="J36" s="10"/>
+      <c r="K36" s="10"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="10"/>
+      <c r="N36" s="10"/>
+      <c r="O36" s="10"/>
+      <c r="P36" s="10"/>
+      <c r="Q36" s="10"/>
+      <c r="R36" s="10"/>
+      <c r="S36" s="10"/>
+      <c r="T36" s="10"/>
+      <c r="U36" s="10"/>
+      <c r="V36" s="10"/>
+      <c r="W36" s="10"/>
+      <c r="X36" s="10"/>
+      <c r="Y36" s="10"/>
+      <c r="Z36" s="10"/>
+      <c r="AA36" s="10"/>
+      <c r="AB36" s="10"/>
+      <c r="AC36" s="10"/>
+      <c r="AD36" s="10"/>
+      <c r="AE36" s="10"/>
+      <c r="AF36" s="10"/>
+      <c r="AG36" s="10"/>
     </row>
     <row r="37" ht="13.8" customHeight="1">
       <c r="A37" s="9"/>
@@ -2744,34 +2772,34 @@
       <c r="C37" s="2"/>
       <c r="D37" s="2"/>
       <c r="E37" s="2"/>
-      <c r="F37" s="11"/>
-      <c r="G37" s="11"/>
-      <c r="H37" s="11"/>
-      <c r="I37" s="11"/>
-      <c r="J37" s="11"/>
-      <c r="K37" s="11"/>
-      <c r="L37" s="11"/>
-      <c r="M37" s="11"/>
-      <c r="N37" s="11"/>
-      <c r="O37" s="11"/>
-      <c r="P37" s="11"/>
-      <c r="Q37" s="11"/>
-      <c r="R37" s="11"/>
-      <c r="S37" s="11"/>
-      <c r="T37" s="11"/>
-      <c r="U37" s="11"/>
-      <c r="V37" s="11"/>
-      <c r="W37" s="11"/>
-      <c r="X37" s="11"/>
-      <c r="Y37" s="11"/>
-      <c r="Z37" s="11"/>
-      <c r="AA37" s="11"/>
-      <c r="AB37" s="11"/>
-      <c r="AC37" s="11"/>
-      <c r="AD37" s="11"/>
-      <c r="AE37" s="11"/>
-      <c r="AF37" s="11"/>
-      <c r="AG37" s="11"/>
+      <c r="F37" s="10"/>
+      <c r="G37" s="10"/>
+      <c r="H37" s="10"/>
+      <c r="I37" s="10"/>
+      <c r="J37" s="10"/>
+      <c r="K37" s="10"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="10"/>
+      <c r="N37" s="10"/>
+      <c r="O37" s="10"/>
+      <c r="P37" s="10"/>
+      <c r="Q37" s="10"/>
+      <c r="R37" s="10"/>
+      <c r="S37" s="10"/>
+      <c r="T37" s="10"/>
+      <c r="U37" s="10"/>
+      <c r="V37" s="10"/>
+      <c r="W37" s="10"/>
+      <c r="X37" s="10"/>
+      <c r="Y37" s="10"/>
+      <c r="Z37" s="10"/>
+      <c r="AA37" s="10"/>
+      <c r="AB37" s="10"/>
+      <c r="AC37" s="10"/>
+      <c r="AD37" s="10"/>
+      <c r="AE37" s="10"/>
+      <c r="AF37" s="10"/>
+      <c r="AG37" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MakeAGame/LubanTool/GameConfig/Datas/Relic.xlsx
+++ b/MakeAGame/LubanTool/GameConfig/Datas/Relic.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
   <si>
     <t>##var</t>
   </si>
@@ -103,7 +103,7 @@
     <t>这个小盒子里藏着可怖的虫子。它们会吞噬人类的鲜血，但在此过程中，也会让你的心灵变得更加强大。</t>
   </si>
   <si>
-    <t>每场战斗结束后，获得3点最大混沌值</t>
+    <t>每场战斗结束后，获得{0}点最大混沌值</t>
   </si>
   <si>
     <t>White</t>
@@ -113,6 +113,75 @@
   </si>
   <si>
     <t>增加最大混沌值</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>织网</t>
+  </si>
+  <si>
+    <t>看起来只是一张网，但实际上它可以让你在你的背包中找到任何你需要的物品。只需一点点的心灵控制。</t>
+  </si>
+  <si>
+    <t>每场战斗开始前，可以获得一次重抽手牌的机会</t>
+  </si>
+  <si>
+    <t>镇定剂</t>
+  </si>
+  <si>
+    <t>这个药剂是由不知名的深海怪鱼制成的。它可以让你在可怕的环境下保持冷静，并减轻神经紧张。</t>
+  </si>
+  <si>
+    <t>战斗开始时，你的混沌值为{0}点</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>130</t>
+  </si>
+  <si>
+    <t>固定混沌值</t>
+  </si>
+  <si>
+    <t>过滤罐</t>
+  </si>
+  <si>
+    <t>它可以过滤出一些你不愿看到的事情，让你看到真正的现实，但要小心，它展示的内容可能会造成你的巨大痛苦。</t>
+  </si>
+  <si>
+    <t>战斗结束后，如果地图上只有一个卡包类型的生面牌，获得{0}金币</t>
+  </si>
+  <si>
+    <t>5</t>
+  </si>
+  <si>
+    <t>获得金币数</t>
+  </si>
+  <si>
+    <t>小背包</t>
+  </si>
+  <si>
+    <t>这个小背包十分便携，但却能装下任何你需要的东西。</t>
+  </si>
+  <si>
+    <t>随机获得{0}张牌</t>
+  </si>
+  <si>
+    <t>获得牌数</t>
+  </si>
+  <si>
+    <t>亡灵的帽子</t>
+  </si>
+  <si>
+    <t>亡灵喜爱它，它是无价的。</t>
+  </si>
+  <si>
+    <t>每场战斗开始时，亡灵随机获得一点属性，战斗结束后消失</t>
+  </si>
+  <si>
+    <t>Green</t>
   </si>
 </sst>
 </file>
@@ -163,7 +232,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -236,6 +305,51 @@
         <color indexed="11"/>
       </left>
       <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="10"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="10"/>
+      </right>
+      <top style="thin">
+        <color indexed="11"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="11"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
         <color indexed="11"/>
       </right>
       <top style="thin">
@@ -252,7 +366,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -295,7 +409,16 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -304,19 +427,28 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -1411,14 +1543,14 @@
     <col min="1" max="1" width="9.17188" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.6719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="10.1719" style="1" customWidth="1"/>
-    <col min="5" max="5" width="9.67188" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8281" style="1" customWidth="1"/>
+    <col min="5" max="5" width="53.5" style="1" customWidth="1"/>
     <col min="6" max="6" width="9.5" style="1" customWidth="1"/>
     <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
     <col min="8" max="8" width="14.3516" style="1" customWidth="1"/>
     <col min="9" max="9" width="12.3516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.8281" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.7734" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.8516" style="1" customWidth="1"/>
+    <col min="11" max="11" width="14.8516" style="1" customWidth="1"/>
     <col min="12" max="12" width="15" style="1" customWidth="1"/>
     <col min="13" max="14" width="9" style="1" customWidth="1"/>
     <col min="15" max="15" width="14.3516" style="1" customWidth="1"/>
@@ -1615,7 +1747,9 @@
         <v>31</v>
       </c>
       <c r="G4" s="9"/>
-      <c r="H4" s="2"/>
+      <c r="H4" t="s" s="2">
+        <v>32</v>
+      </c>
       <c r="I4" s="2"/>
       <c r="J4" t="s" s="2">
         <v>32</v>
@@ -1648,11 +1782,21 @@
     </row>
     <row r="5" ht="19" customHeight="1">
       <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="F5" t="s" s="2">
+        <v>31</v>
+      </c>
       <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
@@ -1683,18 +1827,34 @@
     </row>
     <row r="6" ht="16" customHeight="1">
       <c r="A6" s="13"/>
-      <c r="B6" s="13"/>
-      <c r="C6" s="14"/>
-      <c r="D6" s="14"/>
-      <c r="E6" s="14"/>
-      <c r="F6" s="13"/>
-      <c r="G6" s="14"/>
+      <c r="B6" s="14">
+        <v>3</v>
+      </c>
+      <c r="C6" t="s" s="15">
+        <v>38</v>
+      </c>
+      <c r="D6" t="s" s="15">
+        <v>39</v>
+      </c>
+      <c r="E6" t="s" s="16">
+        <v>40</v>
+      </c>
+      <c r="F6" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="G6" t="s" s="17">
+        <v>41</v>
+      </c>
       <c r="H6" s="13"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="14"/>
+      <c r="I6" s="15"/>
+      <c r="J6" t="s" s="15">
+        <v>42</v>
+      </c>
+      <c r="K6" t="s" s="15">
+        <v>43</v>
+      </c>
       <c r="L6" s="13"/>
-      <c r="M6" s="15"/>
+      <c r="M6" s="18"/>
       <c r="N6" s="5"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
@@ -1717,18 +1877,32 @@
       <c r="AG6" s="5"/>
     </row>
     <row r="7" ht="16" customHeight="1">
-      <c r="A7" s="16"/>
-      <c r="B7" s="16"/>
-      <c r="C7" s="17"/>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="17"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="17"/>
-      <c r="J7" s="17"/>
-      <c r="K7" s="17"/>
-      <c r="L7" s="16"/>
+      <c r="A7" s="19"/>
+      <c r="B7" s="20">
+        <v>4</v>
+      </c>
+      <c r="C7" t="s" s="21">
+        <v>44</v>
+      </c>
+      <c r="D7" t="s" s="21">
+        <v>45</v>
+      </c>
+      <c r="E7" t="s" s="22">
+        <v>46</v>
+      </c>
+      <c r="F7" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="G7" s="23"/>
+      <c r="H7" s="19"/>
+      <c r="I7" s="21"/>
+      <c r="J7" t="s" s="21">
+        <v>47</v>
+      </c>
+      <c r="K7" t="s" s="21">
+        <v>48</v>
+      </c>
+      <c r="L7" s="19"/>
       <c r="M7" s="5"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
@@ -1752,18 +1926,32 @@
       <c r="AG7" s="5"/>
     </row>
     <row r="8" ht="16" customHeight="1">
-      <c r="A8" s="16"/>
-      <c r="B8" s="16"/>
-      <c r="C8" s="17"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="16"/>
-      <c r="G8" s="17"/>
-      <c r="H8" s="16"/>
-      <c r="I8" s="17"/>
-      <c r="J8" s="17"/>
-      <c r="K8" s="17"/>
-      <c r="L8" s="16"/>
+      <c r="A8" s="19"/>
+      <c r="B8" s="20">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s" s="21">
+        <v>49</v>
+      </c>
+      <c r="D8" t="s" s="21">
+        <v>50</v>
+      </c>
+      <c r="E8" t="s" s="22">
+        <v>51</v>
+      </c>
+      <c r="F8" t="s" s="2">
+        <v>31</v>
+      </c>
+      <c r="G8" s="23"/>
+      <c r="H8" s="19"/>
+      <c r="I8" s="21"/>
+      <c r="J8" t="s" s="21">
+        <v>32</v>
+      </c>
+      <c r="K8" t="s" s="21">
+        <v>52</v>
+      </c>
+      <c r="L8" s="19"/>
       <c r="M8" s="5"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
@@ -1787,18 +1975,28 @@
       <c r="AG8" s="5"/>
     </row>
     <row r="9" ht="16" customHeight="1">
-      <c r="A9" s="16"/>
-      <c r="B9" s="16"/>
-      <c r="C9" s="17"/>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="16"/>
-      <c r="G9" s="17"/>
-      <c r="H9" s="17"/>
-      <c r="I9" s="17"/>
-      <c r="J9" s="17"/>
-      <c r="K9" s="17"/>
-      <c r="L9" s="16"/>
+      <c r="A9" s="19"/>
+      <c r="B9" s="20">
+        <v>6</v>
+      </c>
+      <c r="C9" t="s" s="21">
+        <v>53</v>
+      </c>
+      <c r="D9" t="s" s="21">
+        <v>54</v>
+      </c>
+      <c r="E9" t="s" s="21">
+        <v>55</v>
+      </c>
+      <c r="F9" t="s" s="15">
+        <v>56</v>
+      </c>
+      <c r="G9" s="21"/>
+      <c r="H9" s="21"/>
+      <c r="I9" s="21"/>
+      <c r="J9" s="21"/>
+      <c r="K9" s="21"/>
+      <c r="L9" s="19"/>
       <c r="M9" s="5"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
@@ -1822,18 +2020,18 @@
       <c r="AG9" s="5"/>
     </row>
     <row r="10" ht="16" customHeight="1">
-      <c r="A10" s="16"/>
-      <c r="B10" s="16"/>
-      <c r="C10" s="17"/>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="17"/>
-      <c r="I10" s="17"/>
-      <c r="J10" s="17"/>
-      <c r="K10" s="17"/>
-      <c r="L10" s="16"/>
+      <c r="A10" s="19"/>
+      <c r="B10" s="19"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="21"/>
+      <c r="H10" s="21"/>
+      <c r="I10" s="21"/>
+      <c r="J10" s="21"/>
+      <c r="K10" s="21"/>
+      <c r="L10" s="19"/>
       <c r="M10" s="5"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -1857,18 +2055,18 @@
       <c r="AG10" s="5"/>
     </row>
     <row r="11" ht="16" customHeight="1">
-      <c r="A11" s="16"/>
-      <c r="B11" s="16"/>
-      <c r="C11" s="17"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="17"/>
-      <c r="I11" s="17"/>
-      <c r="J11" s="17"/>
-      <c r="K11" s="17"/>
-      <c r="L11" s="16"/>
+      <c r="A11" s="19"/>
+      <c r="B11" s="19"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="21"/>
+      <c r="H11" s="21"/>
+      <c r="I11" s="21"/>
+      <c r="J11" s="21"/>
+      <c r="K11" s="21"/>
+      <c r="L11" s="19"/>
       <c r="M11" s="5"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -1892,18 +2090,18 @@
       <c r="AG11" s="5"/>
     </row>
     <row r="12" ht="16" customHeight="1">
-      <c r="A12" s="16"/>
-      <c r="B12" s="16"/>
-      <c r="C12" s="17"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="17"/>
-      <c r="H12" s="17"/>
-      <c r="I12" s="17"/>
-      <c r="J12" s="17"/>
-      <c r="K12" s="17"/>
-      <c r="L12" s="16"/>
+      <c r="A12" s="19"/>
+      <c r="B12" s="19"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="21"/>
+      <c r="H12" s="21"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="21"/>
+      <c r="K12" s="21"/>
+      <c r="L12" s="19"/>
       <c r="M12" s="5"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -1927,18 +2125,18 @@
       <c r="AG12" s="5"/>
     </row>
     <row r="13" ht="16" customHeight="1">
-      <c r="A13" s="16"/>
-      <c r="B13" s="16"/>
-      <c r="C13" s="17"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="16"/>
-      <c r="G13" s="18"/>
-      <c r="H13" s="16"/>
-      <c r="I13" s="17"/>
-      <c r="J13" s="17"/>
-      <c r="K13" s="17"/>
-      <c r="L13" s="16"/>
+      <c r="A13" s="19"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="19"/>
+      <c r="I13" s="21"/>
+      <c r="J13" s="21"/>
+      <c r="K13" s="21"/>
+      <c r="L13" s="19"/>
       <c r="M13" s="5"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -1962,18 +2160,18 @@
       <c r="AG13" s="5"/>
     </row>
     <row r="14" ht="16" customHeight="1">
-      <c r="A14" s="16"/>
-      <c r="B14" s="16"/>
-      <c r="C14" s="17"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="16"/>
-      <c r="G14" s="18"/>
-      <c r="H14" s="16"/>
-      <c r="I14" s="17"/>
-      <c r="J14" s="17"/>
-      <c r="K14" s="17"/>
-      <c r="L14" s="16"/>
+      <c r="A14" s="19"/>
+      <c r="B14" s="19"/>
+      <c r="C14" s="21"/>
+      <c r="D14" s="21"/>
+      <c r="E14" s="21"/>
+      <c r="F14" s="19"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="19"/>
+      <c r="I14" s="21"/>
+      <c r="J14" s="21"/>
+      <c r="K14" s="21"/>
+      <c r="L14" s="19"/>
       <c r="M14" s="5"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
@@ -1997,18 +2195,18 @@
       <c r="AG14" s="5"/>
     </row>
     <row r="15" ht="16" customHeight="1">
-      <c r="A15" s="16"/>
-      <c r="B15" s="16"/>
-      <c r="C15" s="17"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="16"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="17"/>
-      <c r="K15" s="17"/>
-      <c r="L15" s="16"/>
+      <c r="A15" s="19"/>
+      <c r="B15" s="19"/>
+      <c r="C15" s="21"/>
+      <c r="D15" s="21"/>
+      <c r="E15" s="21"/>
+      <c r="F15" s="19"/>
+      <c r="G15" s="21"/>
+      <c r="H15" s="19"/>
+      <c r="I15" s="21"/>
+      <c r="J15" s="21"/>
+      <c r="K15" s="21"/>
+      <c r="L15" s="19"/>
       <c r="M15" s="5"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
@@ -2032,39 +2230,39 @@
       <c r="AG15" s="5"/>
     </row>
     <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="20"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
-      <c r="L16" s="19"/>
-      <c r="M16" s="21"/>
-      <c r="N16" s="21"/>
-      <c r="O16" s="21"/>
-      <c r="P16" s="21"/>
-      <c r="Q16" s="21"/>
-      <c r="R16" s="21"/>
-      <c r="S16" s="21"/>
-      <c r="T16" s="21"/>
-      <c r="U16" s="21"/>
-      <c r="V16" s="21"/>
-      <c r="W16" s="21"/>
-      <c r="X16" s="21"/>
-      <c r="Y16" s="21"/>
-      <c r="Z16" s="21"/>
-      <c r="AA16" s="21"/>
-      <c r="AB16" s="21"/>
-      <c r="AC16" s="21"/>
-      <c r="AD16" s="21"/>
-      <c r="AE16" s="21"/>
-      <c r="AF16" s="21"/>
-      <c r="AG16" s="21"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="25"/>
+      <c r="M16" s="27"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
     </row>
     <row r="17" ht="13.8" customHeight="1">
       <c r="A17" s="9"/>

--- a/MakeAGame/LubanTool/GameConfig/Datas/Relic.xlsx
+++ b/MakeAGame/LubanTool/GameConfig/Datas/Relic.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>##var</t>
   </si>
@@ -31,6 +31,9 @@
     <t>rarity</t>
   </si>
   <si>
+    <t>typeName</t>
+  </si>
+  <si>
     <t>ToCancelRelics</t>
   </si>
   <si>
@@ -82,6 +85,9 @@
     <t>品质</t>
   </si>
   <si>
+    <t>类名</t>
+  </si>
+  <si>
     <t>本遗物会取消哪些遗物的效果</t>
   </si>
   <si>
@@ -109,6 +115,9 @@
     <t>White</t>
   </si>
   <si>
+    <t>Relic1</t>
+  </si>
+  <si>
     <t>3</t>
   </si>
   <si>
@@ -127,6 +136,9 @@
     <t>每场战斗开始前，可以获得一次重抽手牌的机会</t>
   </si>
   <si>
+    <t>Relic2</t>
+  </si>
+  <si>
     <t>镇定剂</t>
   </si>
   <si>
@@ -136,6 +148,9 @@
     <t>战斗开始时，你的混沌值为{0}点</t>
   </si>
   <si>
+    <t>Relic3</t>
+  </si>
+  <si>
     <t>1</t>
   </si>
   <si>
@@ -154,6 +169,9 @@
     <t>战斗结束后，如果地图上只有一个卡包类型的生面牌，获得{0}金币</t>
   </si>
   <si>
+    <t>Relic4</t>
+  </si>
+  <si>
     <t>5</t>
   </si>
   <si>
@@ -169,6 +187,9 @@
     <t>随机获得{0}张牌</t>
   </si>
   <si>
+    <t>Relic5</t>
+  </si>
+  <si>
     <t>获得牌数</t>
   </si>
   <si>
@@ -182,6 +203,9 @@
   </si>
   <si>
     <t>Green</t>
+  </si>
+  <si>
+    <t>Relic6</t>
   </si>
 </sst>
 </file>
@@ -1534,7 +1558,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AG37"/>
+  <dimension ref="A1:AH37"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -1543,19 +1567,19 @@
     <col min="1" max="1" width="9.17188" style="1" customWidth="1"/>
     <col min="2" max="2" width="10.5" style="1" customWidth="1"/>
     <col min="3" max="3" width="13.6719" style="1" customWidth="1"/>
-    <col min="4" max="4" width="11.8281" style="1" customWidth="1"/>
+    <col min="4" max="4" width="11.8516" style="1" customWidth="1"/>
     <col min="5" max="5" width="53.5" style="1" customWidth="1"/>
-    <col min="6" max="6" width="9.5" style="1" customWidth="1"/>
-    <col min="7" max="7" width="16.5" style="1" customWidth="1"/>
-    <col min="8" max="8" width="14.3516" style="1" customWidth="1"/>
-    <col min="9" max="9" width="12.3516" style="1" customWidth="1"/>
-    <col min="10" max="10" width="13.8516" style="1" customWidth="1"/>
-    <col min="11" max="11" width="14.8516" style="1" customWidth="1"/>
-    <col min="12" max="12" width="15" style="1" customWidth="1"/>
-    <col min="13" max="14" width="9" style="1" customWidth="1"/>
-    <col min="15" max="15" width="14.3516" style="1" customWidth="1"/>
-    <col min="16" max="33" width="9" style="1" customWidth="1"/>
-    <col min="34" max="16384" width="9" style="1" customWidth="1"/>
+    <col min="6" max="7" width="9.5" style="1" customWidth="1"/>
+    <col min="8" max="8" width="16.5" style="1" customWidth="1"/>
+    <col min="9" max="9" width="14.3516" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.3516" style="1" customWidth="1"/>
+    <col min="11" max="11" width="13.8516" style="1" customWidth="1"/>
+    <col min="12" max="12" width="14.8516" style="1" customWidth="1"/>
+    <col min="13" max="13" width="15" style="1" customWidth="1"/>
+    <col min="14" max="15" width="9" style="1" customWidth="1"/>
+    <col min="16" max="16" width="14.3516" style="1" customWidth="1"/>
+    <col min="17" max="34" width="9" style="1" customWidth="1"/>
+    <col min="35" max="16384" width="9" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="16" customHeight="1">
@@ -1592,10 +1616,12 @@
       <c r="K1" t="s" s="2">
         <v>10</v>
       </c>
-      <c r="L1" s="2"/>
-      <c r="M1" s="3"/>
-      <c r="N1" s="4"/>
-      <c r="O1" s="5"/>
+      <c r="L1" t="s" s="2">
+        <v>11</v>
+      </c>
+      <c r="M1" s="2"/>
+      <c r="N1" s="3"/>
+      <c r="O1" s="4"/>
       <c r="P1" s="5"/>
       <c r="Q1" s="5"/>
       <c r="R1" s="5"/>
@@ -1614,46 +1640,49 @@
       <c r="AE1" s="5"/>
       <c r="AF1" s="5"/>
       <c r="AG1" s="5"/>
+      <c r="AH1" s="5"/>
     </row>
     <row r="2" ht="16" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s" s="2">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="F2" t="s" s="6">
+        <v>15</v>
+      </c>
+      <c r="G2" t="s" s="2">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="I2" t="s" s="6">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="D2" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="E2" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="F2" t="s" s="6">
+      <c r="K2" t="s" s="2">
+        <v>17</v>
+      </c>
+      <c r="L2" t="s" s="2">
         <v>14</v>
       </c>
-      <c r="G2" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="H2" t="s" s="6">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s" s="2">
-        <v>12</v>
-      </c>
-      <c r="J2" t="s" s="2">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="L2" s="6"/>
-      <c r="M2" s="3"/>
-      <c r="N2" s="4"/>
-      <c r="O2" s="7"/>
-      <c r="P2" s="5"/>
+      <c r="M2" s="6"/>
+      <c r="N2" s="3"/>
+      <c r="O2" s="4"/>
+      <c r="P2" s="7"/>
       <c r="Q2" s="5"/>
       <c r="R2" s="5"/>
       <c r="S2" s="5"/>
@@ -1671,45 +1700,48 @@
       <c r="AE2" s="5"/>
       <c r="AF2" s="5"/>
       <c r="AG2" s="5"/>
+      <c r="AH2" s="5"/>
     </row>
     <row r="3" ht="16" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s" s="2">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s" s="2">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G3" t="s" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="H3" t="s" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="J3" t="s" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="K3" t="s" s="2">
-        <v>27</v>
-      </c>
-      <c r="L3" s="2"/>
-      <c r="M3" s="3"/>
-      <c r="N3" s="4"/>
-      <c r="O3" s="5"/>
+        <v>28</v>
+      </c>
+      <c r="L3" t="s" s="2">
+        <v>29</v>
+      </c>
+      <c r="M3" s="2"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="4"/>
       <c r="P3" s="5"/>
       <c r="Q3" s="5"/>
       <c r="R3" s="5"/>
@@ -1728,6 +1760,7 @@
       <c r="AE3" s="5"/>
       <c r="AF3" s="5"/>
       <c r="AG3" s="5"/>
+      <c r="AH3" s="5"/>
     </row>
     <row r="4" ht="16" customHeight="1">
       <c r="A4" s="2"/>
@@ -1735,32 +1768,34 @@
         <v>1</v>
       </c>
       <c r="C4" t="s" s="2">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="F4" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="G4" s="9"/>
-      <c r="H4" t="s" s="2">
-        <v>32</v>
-      </c>
-      <c r="I4" s="2"/>
-      <c r="J4" t="s" s="2">
-        <v>32</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G4" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="H4" s="9"/>
+      <c r="I4" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="J4" s="2"/>
       <c r="K4" t="s" s="2">
-        <v>33</v>
-      </c>
-      <c r="L4" s="9"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="11"/>
-      <c r="O4" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="L4" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="M4" s="9"/>
+      <c r="N4" s="10"/>
+      <c r="O4" s="11"/>
       <c r="P4" s="5"/>
       <c r="Q4" s="5"/>
       <c r="R4" s="5"/>
@@ -1779,33 +1814,36 @@
       <c r="AE4" s="5"/>
       <c r="AF4" s="5"/>
       <c r="AG4" s="5"/>
+      <c r="AH4" s="5"/>
     </row>
     <row r="5" ht="19" customHeight="1">
       <c r="A5" s="2"/>
       <c r="B5" t="s" s="2">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="C5" t="s" s="2">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="F5" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="G5" s="2"/>
+        <v>33</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>41</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="9"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="12"/>
       <c r="L5" s="9"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="11"/>
-      <c r="O5" s="5"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="10"/>
+      <c r="O5" s="11"/>
       <c r="P5" s="5"/>
       <c r="Q5" s="5"/>
       <c r="R5" s="5"/>
@@ -1824,6 +1862,7 @@
       <c r="AE5" s="5"/>
       <c r="AF5" s="5"/>
       <c r="AG5" s="5"/>
+      <c r="AH5" s="5"/>
     </row>
     <row r="6" ht="16" customHeight="1">
       <c r="A6" s="13"/>
@@ -1831,31 +1870,33 @@
         <v>3</v>
       </c>
       <c r="C6" t="s" s="15">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="D6" t="s" s="15">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="E6" t="s" s="16">
-        <v>40</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="G6" t="s" s="17">
-        <v>41</v>
-      </c>
-      <c r="H6" s="13"/>
-      <c r="I6" s="15"/>
-      <c r="J6" t="s" s="15">
-        <v>42</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G6" t="s" s="2">
+        <v>45</v>
+      </c>
+      <c r="H6" t="s" s="17">
+        <v>46</v>
+      </c>
+      <c r="I6" s="13"/>
+      <c r="J6" s="15"/>
       <c r="K6" t="s" s="15">
-        <v>43</v>
-      </c>
-      <c r="L6" s="13"/>
-      <c r="M6" s="18"/>
-      <c r="N6" s="5"/>
+        <v>47</v>
+      </c>
+      <c r="L6" t="s" s="15">
+        <v>48</v>
+      </c>
+      <c r="M6" s="13"/>
+      <c r="N6" s="18"/>
       <c r="O6" s="5"/>
       <c r="P6" s="5"/>
       <c r="Q6" s="5"/>
@@ -1875,6 +1916,7 @@
       <c r="AE6" s="5"/>
       <c r="AF6" s="5"/>
       <c r="AG6" s="5"/>
+      <c r="AH6" s="5"/>
     </row>
     <row r="7" ht="16" customHeight="1">
       <c r="A7" s="19"/>
@@ -1882,28 +1924,30 @@
         <v>4</v>
       </c>
       <c r="C7" t="s" s="21">
-        <v>44</v>
+        <v>49</v>
       </c>
       <c r="D7" t="s" s="21">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s" s="22">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="G7" s="23"/>
-      <c r="H7" s="19"/>
-      <c r="I7" s="21"/>
-      <c r="J7" t="s" s="21">
-        <v>47</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G7" t="s" s="2">
+        <v>52</v>
+      </c>
+      <c r="H7" s="23"/>
+      <c r="I7" s="19"/>
+      <c r="J7" s="21"/>
       <c r="K7" t="s" s="21">
-        <v>48</v>
-      </c>
-      <c r="L7" s="19"/>
-      <c r="M7" s="5"/>
+        <v>53</v>
+      </c>
+      <c r="L7" t="s" s="21">
+        <v>54</v>
+      </c>
+      <c r="M7" s="19"/>
       <c r="N7" s="5"/>
       <c r="O7" s="5"/>
       <c r="P7" s="5"/>
@@ -1924,6 +1968,7 @@
       <c r="AE7" s="5"/>
       <c r="AF7" s="5"/>
       <c r="AG7" s="5"/>
+      <c r="AH7" s="5"/>
     </row>
     <row r="8" ht="16" customHeight="1">
       <c r="A8" s="19"/>
@@ -1931,28 +1976,30 @@
         <v>5</v>
       </c>
       <c r="C8" t="s" s="21">
-        <v>49</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s" s="21">
-        <v>50</v>
+        <v>56</v>
       </c>
       <c r="E8" t="s" s="22">
-        <v>51</v>
+        <v>57</v>
       </c>
       <c r="F8" t="s" s="2">
-        <v>31</v>
-      </c>
-      <c r="G8" s="23"/>
-      <c r="H8" s="19"/>
-      <c r="I8" s="21"/>
-      <c r="J8" t="s" s="21">
-        <v>32</v>
-      </c>
+        <v>33</v>
+      </c>
+      <c r="G8" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="H8" s="23"/>
+      <c r="I8" s="19"/>
+      <c r="J8" s="21"/>
       <c r="K8" t="s" s="21">
-        <v>52</v>
-      </c>
-      <c r="L8" s="19"/>
-      <c r="M8" s="5"/>
+        <v>35</v>
+      </c>
+      <c r="L8" t="s" s="21">
+        <v>59</v>
+      </c>
+      <c r="M8" s="19"/>
       <c r="N8" s="5"/>
       <c r="O8" s="5"/>
       <c r="P8" s="5"/>
@@ -1973,6 +2020,7 @@
       <c r="AE8" s="5"/>
       <c r="AF8" s="5"/>
       <c r="AG8" s="5"/>
+      <c r="AH8" s="5"/>
     </row>
     <row r="9" ht="16" customHeight="1">
       <c r="A9" s="19"/>
@@ -1980,24 +2028,26 @@
         <v>6</v>
       </c>
       <c r="C9" t="s" s="21">
-        <v>53</v>
+        <v>60</v>
       </c>
       <c r="D9" t="s" s="21">
-        <v>54</v>
+        <v>61</v>
       </c>
       <c r="E9" t="s" s="21">
-        <v>55</v>
+        <v>62</v>
       </c>
       <c r="F9" t="s" s="15">
-        <v>56</v>
-      </c>
-      <c r="G9" s="21"/>
+        <v>63</v>
+      </c>
+      <c r="G9" t="s" s="15">
+        <v>64</v>
+      </c>
       <c r="H9" s="21"/>
       <c r="I9" s="21"/>
       <c r="J9" s="21"/>
       <c r="K9" s="21"/>
-      <c r="L9" s="19"/>
-      <c r="M9" s="5"/>
+      <c r="L9" s="21"/>
+      <c r="M9" s="19"/>
       <c r="N9" s="5"/>
       <c r="O9" s="5"/>
       <c r="P9" s="5"/>
@@ -2018,6 +2068,7 @@
       <c r="AE9" s="5"/>
       <c r="AF9" s="5"/>
       <c r="AG9" s="5"/>
+      <c r="AH9" s="5"/>
     </row>
     <row r="10" ht="16" customHeight="1">
       <c r="A10" s="19"/>
@@ -2026,13 +2077,13 @@
       <c r="D10" s="21"/>
       <c r="E10" s="21"/>
       <c r="F10" s="19"/>
-      <c r="G10" s="21"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
       <c r="K10" s="21"/>
-      <c r="L10" s="19"/>
-      <c r="M10" s="5"/>
+      <c r="L10" s="21"/>
+      <c r="M10" s="19"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
       <c r="P10" s="5"/>
@@ -2053,6 +2104,7 @@
       <c r="AE10" s="5"/>
       <c r="AF10" s="5"/>
       <c r="AG10" s="5"/>
+      <c r="AH10" s="5"/>
     </row>
     <row r="11" ht="16" customHeight="1">
       <c r="A11" s="19"/>
@@ -2061,13 +2113,13 @@
       <c r="D11" s="21"/>
       <c r="E11" s="21"/>
       <c r="F11" s="19"/>
-      <c r="G11" s="21"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
       <c r="K11" s="21"/>
-      <c r="L11" s="19"/>
-      <c r="M11" s="5"/>
+      <c r="L11" s="21"/>
+      <c r="M11" s="19"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
       <c r="P11" s="5"/>
@@ -2088,6 +2140,7 @@
       <c r="AE11" s="5"/>
       <c r="AF11" s="5"/>
       <c r="AG11" s="5"/>
+      <c r="AH11" s="5"/>
     </row>
     <row r="12" ht="16" customHeight="1">
       <c r="A12" s="19"/>
@@ -2096,13 +2149,13 @@
       <c r="D12" s="21"/>
       <c r="E12" s="21"/>
       <c r="F12" s="19"/>
-      <c r="G12" s="21"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
       <c r="K12" s="21"/>
-      <c r="L12" s="19"/>
-      <c r="M12" s="5"/>
+      <c r="L12" s="21"/>
+      <c r="M12" s="19"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
       <c r="P12" s="5"/>
@@ -2123,6 +2176,7 @@
       <c r="AE12" s="5"/>
       <c r="AF12" s="5"/>
       <c r="AG12" s="5"/>
+      <c r="AH12" s="5"/>
     </row>
     <row r="13" ht="16" customHeight="1">
       <c r="A13" s="19"/>
@@ -2131,13 +2185,13 @@
       <c r="D13" s="21"/>
       <c r="E13" s="21"/>
       <c r="F13" s="19"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="19"/>
-      <c r="I13" s="21"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="19"/>
       <c r="J13" s="21"/>
       <c r="K13" s="21"/>
-      <c r="L13" s="19"/>
-      <c r="M13" s="5"/>
+      <c r="L13" s="21"/>
+      <c r="M13" s="19"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
       <c r="P13" s="5"/>
@@ -2158,6 +2212,7 @@
       <c r="AE13" s="5"/>
       <c r="AF13" s="5"/>
       <c r="AG13" s="5"/>
+      <c r="AH13" s="5"/>
     </row>
     <row r="14" ht="16" customHeight="1">
       <c r="A14" s="19"/>
@@ -2166,13 +2221,13 @@
       <c r="D14" s="21"/>
       <c r="E14" s="21"/>
       <c r="F14" s="19"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="19"/>
-      <c r="I14" s="21"/>
+      <c r="G14" s="19"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="19"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
-      <c r="L14" s="19"/>
-      <c r="M14" s="5"/>
+      <c r="L14" s="21"/>
+      <c r="M14" s="19"/>
       <c r="N14" s="5"/>
       <c r="O14" s="5"/>
       <c r="P14" s="5"/>
@@ -2193,6 +2248,7 @@
       <c r="AE14" s="5"/>
       <c r="AF14" s="5"/>
       <c r="AG14" s="5"/>
+      <c r="AH14" s="5"/>
     </row>
     <row r="15" ht="16" customHeight="1">
       <c r="A15" s="19"/>
@@ -2201,13 +2257,13 @@
       <c r="D15" s="21"/>
       <c r="E15" s="21"/>
       <c r="F15" s="19"/>
-      <c r="G15" s="21"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="21"/>
+      <c r="G15" s="19"/>
+      <c r="H15" s="21"/>
+      <c r="I15" s="19"/>
       <c r="J15" s="21"/>
       <c r="K15" s="21"/>
-      <c r="L15" s="19"/>
-      <c r="M15" s="5"/>
+      <c r="L15" s="21"/>
+      <c r="M15" s="19"/>
       <c r="N15" s="5"/>
       <c r="O15" s="5"/>
       <c r="P15" s="5"/>
@@ -2228,6 +2284,7 @@
       <c r="AE15" s="5"/>
       <c r="AF15" s="5"/>
       <c r="AG15" s="5"/>
+      <c r="AH15" s="5"/>
     </row>
     <row r="16" ht="16" customHeight="1">
       <c r="A16" s="25"/>
@@ -2236,13 +2293,13 @@
       <c r="D16" s="26"/>
       <c r="E16" s="26"/>
       <c r="F16" s="25"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="25"/>
-      <c r="I16" s="26"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="25"/>
       <c r="J16" s="26"/>
       <c r="K16" s="26"/>
-      <c r="L16" s="25"/>
-      <c r="M16" s="27"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="25"/>
       <c r="N16" s="27"/>
       <c r="O16" s="27"/>
       <c r="P16" s="27"/>
@@ -2263,6 +2320,7 @@
       <c r="AE16" s="27"/>
       <c r="AF16" s="27"/>
       <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
     </row>
     <row r="17" ht="13.8" customHeight="1">
       <c r="A17" s="9"/>
@@ -2298,6 +2356,7 @@
       <c r="AE17" s="10"/>
       <c r="AF17" s="10"/>
       <c r="AG17" s="10"/>
+      <c r="AH17" s="10"/>
     </row>
     <row r="18" ht="13.8" customHeight="1">
       <c r="A18" s="9"/>
@@ -2333,6 +2392,7 @@
       <c r="AE18" s="10"/>
       <c r="AF18" s="10"/>
       <c r="AG18" s="10"/>
+      <c r="AH18" s="10"/>
     </row>
     <row r="19" ht="13.8" customHeight="1">
       <c r="A19" s="9"/>
@@ -2368,6 +2428,7 @@
       <c r="AE19" s="10"/>
       <c r="AF19" s="10"/>
       <c r="AG19" s="10"/>
+      <c r="AH19" s="10"/>
     </row>
     <row r="20" ht="13.8" customHeight="1">
       <c r="A20" s="9"/>
@@ -2403,6 +2464,7 @@
       <c r="AE20" s="10"/>
       <c r="AF20" s="10"/>
       <c r="AG20" s="10"/>
+      <c r="AH20" s="10"/>
     </row>
     <row r="21" ht="13.8" customHeight="1">
       <c r="A21" s="9"/>
@@ -2438,6 +2500,7 @@
       <c r="AE21" s="10"/>
       <c r="AF21" s="10"/>
       <c r="AG21" s="10"/>
+      <c r="AH21" s="10"/>
     </row>
     <row r="22" ht="13.8" customHeight="1">
       <c r="A22" s="9"/>
@@ -2473,6 +2536,7 @@
       <c r="AE22" s="10"/>
       <c r="AF22" s="10"/>
       <c r="AG22" s="10"/>
+      <c r="AH22" s="10"/>
     </row>
     <row r="23" ht="13.8" customHeight="1">
       <c r="A23" s="9"/>
@@ -2508,6 +2572,7 @@
       <c r="AE23" s="10"/>
       <c r="AF23" s="10"/>
       <c r="AG23" s="10"/>
+      <c r="AH23" s="10"/>
     </row>
     <row r="24" ht="13.8" customHeight="1">
       <c r="A24" s="9"/>
@@ -2543,6 +2608,7 @@
       <c r="AE24" s="10"/>
       <c r="AF24" s="10"/>
       <c r="AG24" s="10"/>
+      <c r="AH24" s="10"/>
     </row>
     <row r="25" ht="13.8" customHeight="1">
       <c r="A25" s="9"/>
@@ -2578,6 +2644,7 @@
       <c r="AE25" s="10"/>
       <c r="AF25" s="10"/>
       <c r="AG25" s="10"/>
+      <c r="AH25" s="10"/>
     </row>
     <row r="26" ht="13.8" customHeight="1">
       <c r="A26" s="9"/>
@@ -2613,6 +2680,7 @@
       <c r="AE26" s="10"/>
       <c r="AF26" s="10"/>
       <c r="AG26" s="10"/>
+      <c r="AH26" s="10"/>
     </row>
     <row r="27" ht="13.8" customHeight="1">
       <c r="A27" s="9"/>
@@ -2648,6 +2716,7 @@
       <c r="AE27" s="10"/>
       <c r="AF27" s="10"/>
       <c r="AG27" s="10"/>
+      <c r="AH27" s="10"/>
     </row>
     <row r="28" ht="13.8" customHeight="1">
       <c r="A28" s="9"/>
@@ -2683,6 +2752,7 @@
       <c r="AE28" s="10"/>
       <c r="AF28" s="10"/>
       <c r="AG28" s="10"/>
+      <c r="AH28" s="10"/>
     </row>
     <row r="29" ht="13.8" customHeight="1">
       <c r="A29" s="9"/>
@@ -2718,6 +2788,7 @@
       <c r="AE29" s="10"/>
       <c r="AF29" s="10"/>
       <c r="AG29" s="10"/>
+      <c r="AH29" s="10"/>
     </row>
     <row r="30" ht="13.8" customHeight="1">
       <c r="A30" s="9"/>
@@ -2753,6 +2824,7 @@
       <c r="AE30" s="10"/>
       <c r="AF30" s="10"/>
       <c r="AG30" s="10"/>
+      <c r="AH30" s="10"/>
     </row>
     <row r="31" ht="13.8" customHeight="1">
       <c r="A31" s="9"/>
@@ -2788,6 +2860,7 @@
       <c r="AE31" s="10"/>
       <c r="AF31" s="10"/>
       <c r="AG31" s="10"/>
+      <c r="AH31" s="10"/>
     </row>
     <row r="32" ht="13.8" customHeight="1">
       <c r="A32" s="9"/>
@@ -2823,6 +2896,7 @@
       <c r="AE32" s="10"/>
       <c r="AF32" s="10"/>
       <c r="AG32" s="10"/>
+      <c r="AH32" s="10"/>
     </row>
     <row r="33" ht="13.8" customHeight="1">
       <c r="A33" s="9"/>
@@ -2858,6 +2932,7 @@
       <c r="AE33" s="10"/>
       <c r="AF33" s="10"/>
       <c r="AG33" s="10"/>
+      <c r="AH33" s="10"/>
     </row>
     <row r="34" ht="13.8" customHeight="1">
       <c r="A34" s="9"/>
@@ -2893,6 +2968,7 @@
       <c r="AE34" s="10"/>
       <c r="AF34" s="10"/>
       <c r="AG34" s="10"/>
+      <c r="AH34" s="10"/>
     </row>
     <row r="35" ht="13.8" customHeight="1">
       <c r="A35" s="9"/>
@@ -2928,6 +3004,7 @@
       <c r="AE35" s="10"/>
       <c r="AF35" s="10"/>
       <c r="AG35" s="10"/>
+      <c r="AH35" s="10"/>
     </row>
     <row r="36" ht="13.8" customHeight="1">
       <c r="A36" s="9"/>
@@ -2963,6 +3040,7 @@
       <c r="AE36" s="10"/>
       <c r="AF36" s="10"/>
       <c r="AG36" s="10"/>
+      <c r="AH36" s="10"/>
     </row>
     <row r="37" ht="13.8" customHeight="1">
       <c r="A37" s="9"/>
@@ -2998,6 +3076,7 @@
       <c r="AE37" s="10"/>
       <c r="AF37" s="10"/>
       <c r="AG37" s="10"/>
+      <c r="AH37" s="10"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/MakeAGame/LubanTool/GameConfig/Datas/Relic.xlsx
+++ b/MakeAGame/LubanTool/GameConfig/Datas/Relic.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
   <si>
     <t>##var</t>
   </si>
@@ -206,6 +206,72 @@
   </si>
   <si>
     <t>Relic6</t>
+  </si>
+  <si>
+    <t>鱼鳞</t>
+  </si>
+  <si>
+    <t>这些鳞片是剥自可怕的巨型海怪。它们可以让你在水中呼吸，并进行长时间的潜水。但取得它们的代价是任何人都无法想象的。</t>
+  </si>
+  <si>
+    <t>每当你造成小于等于{0}点且非Miss伤害时，将伤害提升为{0}</t>
+  </si>
+  <si>
+    <t>Relic7</t>
+  </si>
+  <si>
+    <t>伤害值</t>
+  </si>
+  <si>
+    <t>废品回收机</t>
+  </si>
+  <si>
+    <t>这个破烂回收机可以将无用的垃圾和装置重新变成有用的东西。但使用它需要小心谨慎，因为有时候回收的东西可能远比你想象的更加危险。</t>
+  </si>
+  <si>
+    <t>每使用{0}张死面牌，随机获得一张普通品质的学者牌</t>
+  </si>
+  <si>
+    <t>Relic8</t>
+  </si>
+  <si>
+    <t>使用死面数</t>
+  </si>
+  <si>
+    <t>水晶球</t>
+  </si>
+  <si>
+    <t>这些法珠和水晶球是由神秘巫师制成的。它们能够让你看到未来和未知，但数据可能会来得非常模糊和不可靠。</t>
+  </si>
+  <si>
+    <t>在每场战斗的前{0}秒混沌值损耗减少{1}%</t>
+  </si>
+  <si>
+    <t>Relic9</t>
+  </si>
+  <si>
+    <t>10,10</t>
+  </si>
+  <si>
+    <t>秒数，减少比例</t>
+  </si>
+  <si>
+    <t>符纸</t>
+  </si>
+  <si>
+    <t>些护身符能够保护你不受死气的侵害。当你使用它们时，你会感到一股强烈的保护力量。</t>
+  </si>
+  <si>
+    <t>抵消下{0}次生面牌受到的超过{1}点伤害的攻击</t>
+  </si>
+  <si>
+    <t>Relic10</t>
+  </si>
+  <si>
+    <t>5,10</t>
+  </si>
+  <si>
+    <t>抵消次数，伤害值</t>
   </si>
 </sst>
 </file>
@@ -256,7 +322,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -377,6 +443,21 @@
         <color indexed="11"/>
       </right>
       <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="10"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="11"/>
+      </left>
+      <right style="thin">
+        <color indexed="11"/>
+      </right>
+      <top style="thin">
         <color indexed="11"/>
       </top>
       <bottom style="thin">
@@ -390,7 +471,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -463,16 +544,19 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
     <xf numFmtId="22" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2036,7 +2120,7 @@
       <c r="E9" t="s" s="21">
         <v>62</v>
       </c>
-      <c r="F9" t="s" s="15">
+      <c r="F9" t="s" s="24">
         <v>63</v>
       </c>
       <c r="G9" t="s" s="15">
@@ -2072,17 +2156,33 @@
     </row>
     <row r="10" ht="16" customHeight="1">
       <c r="A10" s="19"/>
-      <c r="B10" s="19"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="21"/>
-      <c r="E10" s="21"/>
-      <c r="F10" s="19"/>
-      <c r="G10" s="19"/>
+      <c r="B10" s="20">
+        <v>7</v>
+      </c>
+      <c r="C10" t="s" s="21">
+        <v>65</v>
+      </c>
+      <c r="D10" t="s" s="21">
+        <v>66</v>
+      </c>
+      <c r="E10" t="s" s="21">
+        <v>67</v>
+      </c>
+      <c r="F10" t="s" s="24">
+        <v>63</v>
+      </c>
+      <c r="G10" t="s" s="21">
+        <v>68</v>
+      </c>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
-      <c r="K10" s="21"/>
-      <c r="L10" s="21"/>
+      <c r="K10" t="s" s="21">
+        <v>35</v>
+      </c>
+      <c r="L10" t="s" s="21">
+        <v>69</v>
+      </c>
       <c r="M10" s="19"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -2108,17 +2208,33 @@
     </row>
     <row r="11" ht="16" customHeight="1">
       <c r="A11" s="19"/>
-      <c r="B11" s="19"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="21"/>
-      <c r="E11" s="21"/>
-      <c r="F11" s="19"/>
-      <c r="G11" s="19"/>
+      <c r="B11" s="20">
+        <v>8</v>
+      </c>
+      <c r="C11" t="s" s="21">
+        <v>70</v>
+      </c>
+      <c r="D11" t="s" s="21">
+        <v>71</v>
+      </c>
+      <c r="E11" t="s" s="21">
+        <v>72</v>
+      </c>
+      <c r="F11" t="s" s="24">
+        <v>63</v>
+      </c>
+      <c r="G11" t="s" s="21">
+        <v>73</v>
+      </c>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
-      <c r="K11" s="21"/>
-      <c r="L11" s="21"/>
+      <c r="K11" t="s" s="21">
+        <v>35</v>
+      </c>
+      <c r="L11" t="s" s="21">
+        <v>74</v>
+      </c>
       <c r="M11" s="19"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -2144,17 +2260,33 @@
     </row>
     <row r="12" ht="16" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="19"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="21"/>
-      <c r="E12" s="21"/>
-      <c r="F12" s="19"/>
-      <c r="G12" s="19"/>
+      <c r="B12" s="20">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s" s="21">
+        <v>75</v>
+      </c>
+      <c r="D12" t="s" s="21">
+        <v>76</v>
+      </c>
+      <c r="E12" t="s" s="21">
+        <v>77</v>
+      </c>
+      <c r="F12" t="s" s="24">
+        <v>63</v>
+      </c>
+      <c r="G12" t="s" s="21">
+        <v>78</v>
+      </c>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
-      <c r="K12" s="21"/>
-      <c r="L12" s="21"/>
+      <c r="K12" t="s" s="21">
+        <v>79</v>
+      </c>
+      <c r="L12" t="s" s="21">
+        <v>80</v>
+      </c>
       <c r="M12" s="19"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -2180,17 +2312,33 @@
     </row>
     <row r="13" ht="16" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="19"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="21"/>
-      <c r="E13" s="21"/>
-      <c r="F13" s="19"/>
-      <c r="G13" s="19"/>
-      <c r="H13" s="24"/>
+      <c r="B13" s="20">
+        <v>10</v>
+      </c>
+      <c r="C13" t="s" s="21">
+        <v>81</v>
+      </c>
+      <c r="D13" t="s" s="21">
+        <v>82</v>
+      </c>
+      <c r="E13" t="s" s="21">
+        <v>83</v>
+      </c>
+      <c r="F13" t="s" s="15">
+        <v>63</v>
+      </c>
+      <c r="G13" t="s" s="21">
+        <v>84</v>
+      </c>
+      <c r="H13" s="25"/>
       <c r="I13" s="19"/>
       <c r="J13" s="21"/>
-      <c r="K13" s="21"/>
-      <c r="L13" s="21"/>
+      <c r="K13" t="s" s="21">
+        <v>85</v>
+      </c>
+      <c r="L13" t="s" s="21">
+        <v>86</v>
+      </c>
       <c r="M13" s="19"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -2222,7 +2370,7 @@
       <c r="E14" s="21"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
-      <c r="H14" s="24"/>
+      <c r="H14" s="25"/>
       <c r="I14" s="19"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -2287,40 +2435,40 @@
       <c r="AH15" s="5"/>
     </row>
     <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="25"/>
-      <c r="B16" s="25"/>
-      <c r="C16" s="26"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="25"/>
-      <c r="G16" s="25"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
-      <c r="K16" s="26"/>
-      <c r="L16" s="26"/>
-      <c r="M16" s="25"/>
-      <c r="N16" s="27"/>
-      <c r="O16" s="27"/>
-      <c r="P16" s="27"/>
-      <c r="Q16" s="27"/>
-      <c r="R16" s="27"/>
-      <c r="S16" s="27"/>
-      <c r="T16" s="27"/>
-      <c r="U16" s="27"/>
-      <c r="V16" s="27"/>
-      <c r="W16" s="27"/>
-      <c r="X16" s="27"/>
-      <c r="Y16" s="27"/>
-      <c r="Z16" s="27"/>
-      <c r="AA16" s="27"/>
-      <c r="AB16" s="27"/>
-      <c r="AC16" s="27"/>
-      <c r="AD16" s="27"/>
-      <c r="AE16" s="27"/>
-      <c r="AF16" s="27"/>
-      <c r="AG16" s="27"/>
-      <c r="AH16" s="27"/>
+      <c r="A16" s="26"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="27"/>
+      <c r="I16" s="26"/>
+      <c r="J16" s="27"/>
+      <c r="K16" s="27"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="26"/>
+      <c r="N16" s="28"/>
+      <c r="O16" s="28"/>
+      <c r="P16" s="28"/>
+      <c r="Q16" s="28"/>
+      <c r="R16" s="28"/>
+      <c r="S16" s="28"/>
+      <c r="T16" s="28"/>
+      <c r="U16" s="28"/>
+      <c r="V16" s="28"/>
+      <c r="W16" s="28"/>
+      <c r="X16" s="28"/>
+      <c r="Y16" s="28"/>
+      <c r="Z16" s="28"/>
+      <c r="AA16" s="28"/>
+      <c r="AB16" s="28"/>
+      <c r="AC16" s="28"/>
+      <c r="AD16" s="28"/>
+      <c r="AE16" s="28"/>
+      <c r="AF16" s="28"/>
+      <c r="AG16" s="28"/>
+      <c r="AH16" s="28"/>
     </row>
     <row r="17" ht="13.8" customHeight="1">
       <c r="A17" s="9"/>

--- a/MakeAGame/LubanTool/GameConfig/Datas/Relic.xlsx
+++ b/MakeAGame/LubanTool/GameConfig/Datas/Relic.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="65">
   <si>
     <t>##var</t>
   </si>
@@ -206,72 +206,6 @@
   </si>
   <si>
     <t>Relic6</t>
-  </si>
-  <si>
-    <t>鱼鳞</t>
-  </si>
-  <si>
-    <t>这些鳞片是剥自可怕的巨型海怪。它们可以让你在水中呼吸，并进行长时间的潜水。但取得它们的代价是任何人都无法想象的。</t>
-  </si>
-  <si>
-    <t>每当你造成小于等于{0}点且非Miss伤害时，将伤害提升为{0}</t>
-  </si>
-  <si>
-    <t>Relic7</t>
-  </si>
-  <si>
-    <t>伤害值</t>
-  </si>
-  <si>
-    <t>废品回收机</t>
-  </si>
-  <si>
-    <t>这个破烂回收机可以将无用的垃圾和装置重新变成有用的东西。但使用它需要小心谨慎，因为有时候回收的东西可能远比你想象的更加危险。</t>
-  </si>
-  <si>
-    <t>每使用{0}张死面牌，随机获得一张普通品质的学者牌</t>
-  </si>
-  <si>
-    <t>Relic8</t>
-  </si>
-  <si>
-    <t>使用死面数</t>
-  </si>
-  <si>
-    <t>水晶球</t>
-  </si>
-  <si>
-    <t>这些法珠和水晶球是由神秘巫师制成的。它们能够让你看到未来和未知，但数据可能会来得非常模糊和不可靠。</t>
-  </si>
-  <si>
-    <t>在每场战斗的前{0}秒混沌值损耗减少{1}%</t>
-  </si>
-  <si>
-    <t>Relic9</t>
-  </si>
-  <si>
-    <t>10,10</t>
-  </si>
-  <si>
-    <t>秒数，减少比例</t>
-  </si>
-  <si>
-    <t>符纸</t>
-  </si>
-  <si>
-    <t>些护身符能够保护你不受死气的侵害。当你使用它们时，你会感到一股强烈的保护力量。</t>
-  </si>
-  <si>
-    <t>抵消下{0}次生面牌受到的超过{1}点伤害的攻击</t>
-  </si>
-  <si>
-    <t>Relic10</t>
-  </si>
-  <si>
-    <t>5,10</t>
-  </si>
-  <si>
-    <t>抵消次数，伤害值</t>
   </si>
 </sst>
 </file>
@@ -322,7 +256,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -443,21 +377,6 @@
         <color indexed="11"/>
       </right>
       <top style="thin">
-        <color indexed="10"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="10"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="11"/>
-      </left>
-      <right style="thin">
-        <color indexed="11"/>
-      </right>
-      <top style="thin">
         <color indexed="11"/>
       </top>
       <bottom style="thin">
@@ -471,7 +390,7 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
@@ -544,19 +463,16 @@
     <xf numFmtId="49" fontId="0" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
+    <xf numFmtId="22" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
     <xf numFmtId="49" fontId="0" fillId="2" borderId="8" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
-    <xf numFmtId="22" fontId="0" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="2" borderId="9" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="left" vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
   </cellXfs>
@@ -2120,7 +2036,7 @@
       <c r="E9" t="s" s="21">
         <v>62</v>
       </c>
-      <c r="F9" t="s" s="24">
+      <c r="F9" t="s" s="15">
         <v>63</v>
       </c>
       <c r="G9" t="s" s="15">
@@ -2156,33 +2072,17 @@
     </row>
     <row r="10" ht="16" customHeight="1">
       <c r="A10" s="19"/>
-      <c r="B10" s="20">
-        <v>7</v>
-      </c>
-      <c r="C10" t="s" s="21">
-        <v>65</v>
-      </c>
-      <c r="D10" t="s" s="21">
-        <v>66</v>
-      </c>
-      <c r="E10" t="s" s="21">
-        <v>67</v>
-      </c>
-      <c r="F10" t="s" s="24">
-        <v>63</v>
-      </c>
-      <c r="G10" t="s" s="21">
-        <v>68</v>
-      </c>
+      <c r="B10" s="19"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
+      <c r="E10" s="21"/>
+      <c r="F10" s="19"/>
+      <c r="G10" s="19"/>
       <c r="H10" s="21"/>
       <c r="I10" s="21"/>
       <c r="J10" s="21"/>
-      <c r="K10" t="s" s="21">
-        <v>35</v>
-      </c>
-      <c r="L10" t="s" s="21">
-        <v>69</v>
-      </c>
+      <c r="K10" s="21"/>
+      <c r="L10" s="21"/>
       <c r="M10" s="19"/>
       <c r="N10" s="5"/>
       <c r="O10" s="5"/>
@@ -2208,33 +2108,17 @@
     </row>
     <row r="11" ht="16" customHeight="1">
       <c r="A11" s="19"/>
-      <c r="B11" s="20">
-        <v>8</v>
-      </c>
-      <c r="C11" t="s" s="21">
-        <v>70</v>
-      </c>
-      <c r="D11" t="s" s="21">
-        <v>71</v>
-      </c>
-      <c r="E11" t="s" s="21">
-        <v>72</v>
-      </c>
-      <c r="F11" t="s" s="24">
-        <v>63</v>
-      </c>
-      <c r="G11" t="s" s="21">
-        <v>73</v>
-      </c>
+      <c r="B11" s="19"/>
+      <c r="C11" s="21"/>
+      <c r="D11" s="21"/>
+      <c r="E11" s="21"/>
+      <c r="F11" s="19"/>
+      <c r="G11" s="19"/>
       <c r="H11" s="21"/>
       <c r="I11" s="21"/>
       <c r="J11" s="21"/>
-      <c r="K11" t="s" s="21">
-        <v>35</v>
-      </c>
-      <c r="L11" t="s" s="21">
-        <v>74</v>
-      </c>
+      <c r="K11" s="21"/>
+      <c r="L11" s="21"/>
       <c r="M11" s="19"/>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -2260,33 +2144,17 @@
     </row>
     <row r="12" ht="16" customHeight="1">
       <c r="A12" s="19"/>
-      <c r="B12" s="20">
-        <v>9</v>
-      </c>
-      <c r="C12" t="s" s="21">
-        <v>75</v>
-      </c>
-      <c r="D12" t="s" s="21">
-        <v>76</v>
-      </c>
-      <c r="E12" t="s" s="21">
-        <v>77</v>
-      </c>
-      <c r="F12" t="s" s="24">
-        <v>63</v>
-      </c>
-      <c r="G12" t="s" s="21">
-        <v>78</v>
-      </c>
+      <c r="B12" s="19"/>
+      <c r="C12" s="21"/>
+      <c r="D12" s="21"/>
+      <c r="E12" s="21"/>
+      <c r="F12" s="19"/>
+      <c r="G12" s="19"/>
       <c r="H12" s="21"/>
       <c r="I12" s="21"/>
       <c r="J12" s="21"/>
-      <c r="K12" t="s" s="21">
-        <v>79</v>
-      </c>
-      <c r="L12" t="s" s="21">
-        <v>80</v>
-      </c>
+      <c r="K12" s="21"/>
+      <c r="L12" s="21"/>
       <c r="M12" s="19"/>
       <c r="N12" s="5"/>
       <c r="O12" s="5"/>
@@ -2312,33 +2180,17 @@
     </row>
     <row r="13" ht="16" customHeight="1">
       <c r="A13" s="19"/>
-      <c r="B13" s="20">
-        <v>10</v>
-      </c>
-      <c r="C13" t="s" s="21">
-        <v>81</v>
-      </c>
-      <c r="D13" t="s" s="21">
-        <v>82</v>
-      </c>
-      <c r="E13" t="s" s="21">
-        <v>83</v>
-      </c>
-      <c r="F13" t="s" s="15">
-        <v>63</v>
-      </c>
-      <c r="G13" t="s" s="21">
-        <v>84</v>
-      </c>
-      <c r="H13" s="25"/>
+      <c r="B13" s="19"/>
+      <c r="C13" s="21"/>
+      <c r="D13" s="21"/>
+      <c r="E13" s="21"/>
+      <c r="F13" s="19"/>
+      <c r="G13" s="19"/>
+      <c r="H13" s="24"/>
       <c r="I13" s="19"/>
       <c r="J13" s="21"/>
-      <c r="K13" t="s" s="21">
-        <v>85</v>
-      </c>
-      <c r="L13" t="s" s="21">
-        <v>86</v>
-      </c>
+      <c r="K13" s="21"/>
+      <c r="L13" s="21"/>
       <c r="M13" s="19"/>
       <c r="N13" s="5"/>
       <c r="O13" s="5"/>
@@ -2370,7 +2222,7 @@
       <c r="E14" s="21"/>
       <c r="F14" s="19"/>
       <c r="G14" s="19"/>
-      <c r="H14" s="25"/>
+      <c r="H14" s="24"/>
       <c r="I14" s="19"/>
       <c r="J14" s="21"/>
       <c r="K14" s="21"/>
@@ -2435,40 +2287,40 @@
       <c r="AH15" s="5"/>
     </row>
     <row r="16" ht="16" customHeight="1">
-      <c r="A16" s="26"/>
-      <c r="B16" s="26"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="26"/>
-      <c r="J16" s="27"/>
-      <c r="K16" s="27"/>
-      <c r="L16" s="27"/>
-      <c r="M16" s="26"/>
-      <c r="N16" s="28"/>
-      <c r="O16" s="28"/>
-      <c r="P16" s="28"/>
-      <c r="Q16" s="28"/>
-      <c r="R16" s="28"/>
-      <c r="S16" s="28"/>
-      <c r="T16" s="28"/>
-      <c r="U16" s="28"/>
-      <c r="V16" s="28"/>
-      <c r="W16" s="28"/>
-      <c r="X16" s="28"/>
-      <c r="Y16" s="28"/>
-      <c r="Z16" s="28"/>
-      <c r="AA16" s="28"/>
-      <c r="AB16" s="28"/>
-      <c r="AC16" s="28"/>
-      <c r="AD16" s="28"/>
-      <c r="AE16" s="28"/>
-      <c r="AF16" s="28"/>
-      <c r="AG16" s="28"/>
-      <c r="AH16" s="28"/>
+      <c r="A16" s="25"/>
+      <c r="B16" s="25"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="26"/>
+      <c r="K16" s="26"/>
+      <c r="L16" s="26"/>
+      <c r="M16" s="25"/>
+      <c r="N16" s="27"/>
+      <c r="O16" s="27"/>
+      <c r="P16" s="27"/>
+      <c r="Q16" s="27"/>
+      <c r="R16" s="27"/>
+      <c r="S16" s="27"/>
+      <c r="T16" s="27"/>
+      <c r="U16" s="27"/>
+      <c r="V16" s="27"/>
+      <c r="W16" s="27"/>
+      <c r="X16" s="27"/>
+      <c r="Y16" s="27"/>
+      <c r="Z16" s="27"/>
+      <c r="AA16" s="27"/>
+      <c r="AB16" s="27"/>
+      <c r="AC16" s="27"/>
+      <c r="AD16" s="27"/>
+      <c r="AE16" s="27"/>
+      <c r="AF16" s="27"/>
+      <c r="AG16" s="27"/>
+      <c r="AH16" s="27"/>
     </row>
     <row r="17" ht="13.8" customHeight="1">
       <c r="A17" s="9"/>
